--- a/planning/JVE_Planning.xlsx
+++ b/planning/JVE_Planning.xlsx
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="341" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -616,12 +616,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,6 +634,254 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="74">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -846,254 +1094,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2811,15 +2811,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF7D7D"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-3E89-438F-9816-332D1E0E14DC}"/>
@@ -3719,10 +3710,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.8929663608562692E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95107033639143734</c:v>
+                  <c:v>0.95238095238095233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4933,7 +4924,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="Workings!$P$2" horiz="1" max="360" page="7" val="145"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="Workings!$P$2" horiz="1" max="360" page="7" val="142"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5679,7 +5670,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jean-Marc VERLAINE" refreshedDate="44439.489725694446" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jean-Marc VERLAINE" refreshedDate="44439.501697916668" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -5819,7 +5810,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Duration" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85" count="12">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85" count="13">
         <n v="1"/>
         <n v="2"/>
         <n v="5"/>
@@ -5829,9 +5820,10 @@
         <n v="15"/>
         <n v="85"/>
         <n v="4"/>
-        <n v="21"/>
+        <n v="30"/>
         <n v="28"/>
         <n v="32"/>
+        <n v="21"/>
       </sharedItems>
     </cacheField>
     <cacheField name="End Date" numFmtId="0">
@@ -5857,7 +5849,7 @@
         <d v="2021-11-08T00:00:00"/>
         <d v="2021-09-21T00:00:00"/>
         <d v="2021-10-19T00:00:00"/>
-        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-11-30T00:00:00"/>
         <d v="2021-12-07T00:00:00"/>
         <d v="2021-12-09T00:00:00"/>
         <d v="2021-12-20T00:00:00"/>
@@ -6343,7 +6335,7 @@
     <x v="36"/>
     <x v="5"/>
     <x v="32"/>
-    <x v="9"/>
+    <x v="12"/>
     <x v="26"/>
     <x v="0"/>
     <x v="0"/>
@@ -6403,7 +6395,7 @@
     <x v="41"/>
     <x v="12"/>
     <x v="35"/>
-    <x v="9"/>
+    <x v="12"/>
     <x v="31"/>
     <x v="0"/>
     <x v="0"/>
@@ -6486,7 +6478,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Gantt" cacheId="341" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Gantt" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:J54" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField name="Topic" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6624,19 +6616,20 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
+      <items count="13">
         <item x="3"/>
         <item x="2"/>
         <item x="5"/>
         <item x="4"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="9"/>
+        <item x="12"/>
         <item x="8"/>
         <item x="10"/>
         <item x="11"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="9"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
@@ -6667,7 +6660,6 @@
         <item x="17"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="21"/>
         <item x="30"/>
         <item x="25"/>
         <item x="23"/>
@@ -6677,6 +6669,7 @@
         <item x="33"/>
         <item x="31"/>
         <item x="32"/>
+        <item x="21"/>
       </items>
     </pivotField>
     <pivotField name="Days comp." axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
@@ -6972,8 +6965,8 @@
       <x v="26"/>
       <x v="4"/>
       <x v="29"/>
-      <x v="26"/>
-      <x v="6"/>
+      <x v="35"/>
+      <x v="12"/>
       <x/>
       <x/>
     </i>
@@ -6981,7 +6974,7 @@
       <x v="31"/>
       <x v="4"/>
       <x v="35"/>
-      <x v="31"/>
+      <x v="30"/>
       <x v="6"/>
       <x/>
       <x/>
@@ -6990,7 +6983,7 @@
       <x v="33"/>
       <x v="4"/>
       <x v="36"/>
-      <x v="32"/>
+      <x v="31"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6999,7 +6992,7 @@
       <x v="47"/>
       <x v="4"/>
       <x v="34"/>
-      <x v="30"/>
+      <x v="29"/>
       <x v="1"/>
       <x/>
       <x/>
@@ -7018,7 +7011,7 @@
       <x v="36"/>
       <x v="14"/>
       <x v="37"/>
-      <x v="34"/>
+      <x v="33"/>
       <x v="6"/>
       <x/>
       <x/>
@@ -7037,7 +7030,7 @@
       <x v="28"/>
       <x v="5"/>
       <x v="33"/>
-      <x v="29"/>
+      <x v="28"/>
       <x v="2"/>
       <x/>
       <x/>
@@ -7047,7 +7040,7 @@
       <x v="29"/>
       <x v="8"/>
       <x v="32"/>
-      <x v="28"/>
+      <x v="27"/>
       <x v="8"/>
       <x/>
       <x/>
@@ -7057,7 +7050,7 @@
       <x v="30"/>
       <x v="9"/>
       <x v="33"/>
-      <x v="31"/>
+      <x v="30"/>
       <x v="9"/>
       <x/>
       <x/>
@@ -7066,7 +7059,7 @@
       <x v="32"/>
       <x v="9"/>
       <x v="36"/>
-      <x v="32"/>
+      <x v="31"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7075,7 +7068,7 @@
       <x v="38"/>
       <x v="9"/>
       <x v="37"/>
-      <x v="33"/>
+      <x v="32"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7084,7 +7077,7 @@
       <x v="39"/>
       <x v="9"/>
       <x v="37"/>
-      <x v="33"/>
+      <x v="32"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7093,7 +7086,7 @@
       <x v="40"/>
       <x v="11"/>
       <x v="38"/>
-      <x v="32"/>
+      <x v="31"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7103,7 +7096,7 @@
       <x v="34"/>
       <x v="4"/>
       <x v="31"/>
-      <x v="27"/>
+      <x v="26"/>
       <x v="5"/>
       <x/>
       <x/>
@@ -7122,7 +7115,7 @@
       <x v="37"/>
       <x v="10"/>
       <x v="35"/>
-      <x v="35"/>
+      <x v="34"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7176,7 +7169,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="48">
-    <format dxfId="18">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7186,46 +7179,46 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="52">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="51">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="50">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="49">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="48">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="47">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="46">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="45">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="44">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="43">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="42">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="41">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="40">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7235,31 +7228,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="38">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="37">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="36">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="35">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="34">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="33">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="32">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="31">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7269,31 +7262,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="29">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="28">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="27">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="26">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="25">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="23">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="22">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7303,31 +7296,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="19">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="18">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="17">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="16">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="15">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="14">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="13">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7337,26 +7330,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="11">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="10">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="9">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -7377,7 +7370,91 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Budget_v_Actual" cacheId="341" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Days_Completed" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="12"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Budget_v_Actual" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -7525,90 +7602,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Days_Completed" cacheId="341" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="17">
-        <item x="12"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Project" sourceName="Project">
   <pivotTables>
@@ -7686,17 +7679,17 @@
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Task"/>
     <tableColumn id="3" name="Manager"/>
-    <tableColumn id="4" name="Start Date" dataDxfId="71"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="5"/>
     <tableColumn id="5" name="Duration"/>
-    <tableColumn id="9" name="End Date" dataDxfId="70">
+    <tableColumn id="9" name="End Date" dataDxfId="4">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Days completed" dataDxfId="69"/>
-    <tableColumn id="6" name="Progress" dataDxfId="68">
+    <tableColumn id="10" name="Days completed" dataDxfId="3"/>
+    <tableColumn id="6" name="Progress" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Budget" dataDxfId="67"/>
-    <tableColumn id="8" name="Actual" dataDxfId="66"/>
+    <tableColumn id="7" name="Budget" dataDxfId="1"/>
+    <tableColumn id="8" name="Actual" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8005,8 +7998,8 @@
   <dimension ref="A1:BA85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC37" sqref="AC37"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8200,163 +8193,163 @@
       </c>
       <c r="K5" s="39">
         <f>MIN(D6:D50)+Workings!P2</f>
-        <v>44454</v>
+        <v>44451</v>
       </c>
       <c r="L5" s="39">
         <f>+K5+1</f>
-        <v>44455</v>
+        <v>44452</v>
       </c>
       <c r="M5" s="39">
         <f t="shared" ref="M5:AJ5" si="0">+L5+1</f>
-        <v>44456</v>
+        <v>44453</v>
       </c>
       <c r="N5" s="39">
         <f t="shared" si="0"/>
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="O5" s="39">
         <f t="shared" si="0"/>
-        <v>44458</v>
+        <v>44455</v>
       </c>
       <c r="P5" s="39">
         <f t="shared" si="0"/>
-        <v>44459</v>
+        <v>44456</v>
       </c>
       <c r="Q5" s="39">
         <f t="shared" si="0"/>
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="R5" s="39">
         <f t="shared" si="0"/>
-        <v>44461</v>
+        <v>44458</v>
       </c>
       <c r="S5" s="39">
         <f t="shared" si="0"/>
-        <v>44462</v>
+        <v>44459</v>
       </c>
       <c r="T5" s="39">
         <f t="shared" si="0"/>
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="U5" s="39">
         <f t="shared" si="0"/>
-        <v>44464</v>
+        <v>44461</v>
       </c>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>44465</v>
+        <v>44462</v>
       </c>
       <c r="W5" s="39">
         <f t="shared" si="0"/>
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="X5" s="39">
         <f t="shared" si="0"/>
-        <v>44467</v>
+        <v>44464</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="0"/>
-        <v>44468</v>
+        <v>44465</v>
       </c>
       <c r="Z5" s="39">
         <f t="shared" si="0"/>
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="0"/>
-        <v>44471</v>
+        <v>44468</v>
       </c>
       <c r="AC5" s="39">
         <f t="shared" si="0"/>
-        <v>44472</v>
+        <v>44469</v>
       </c>
       <c r="AD5" s="39">
         <f t="shared" si="0"/>
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="AE5" s="39">
         <f t="shared" si="0"/>
-        <v>44474</v>
+        <v>44471</v>
       </c>
       <c r="AF5" s="39">
         <f t="shared" si="0"/>
-        <v>44475</v>
+        <v>44472</v>
       </c>
       <c r="AG5" s="39">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="AH5" s="39">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>44474</v>
       </c>
       <c r="AI5" s="39">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>44475</v>
       </c>
       <c r="AJ5" s="39">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>44476</v>
       </c>
       <c r="AK5" s="39">
         <f t="shared" ref="AK5:AX5" si="1">+AJ5+1</f>
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="AL5" s="39">
         <f t="shared" si="1"/>
-        <v>44481</v>
+        <v>44478</v>
       </c>
       <c r="AM5" s="39">
         <f t="shared" si="1"/>
-        <v>44482</v>
+        <v>44479</v>
       </c>
       <c r="AN5" s="39">
         <f t="shared" si="1"/>
-        <v>44483</v>
+        <v>44480</v>
       </c>
       <c r="AO5" s="39">
         <f t="shared" si="1"/>
-        <v>44484</v>
+        <v>44481</v>
       </c>
       <c r="AP5" s="39">
         <f t="shared" si="1"/>
-        <v>44485</v>
+        <v>44482</v>
       </c>
       <c r="AQ5" s="39">
         <f t="shared" si="1"/>
-        <v>44486</v>
+        <v>44483</v>
       </c>
       <c r="AR5" s="39">
         <f t="shared" si="1"/>
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="AS5" s="39">
         <f t="shared" si="1"/>
-        <v>44488</v>
+        <v>44485</v>
       </c>
       <c r="AT5" s="39">
         <f t="shared" si="1"/>
-        <v>44489</v>
+        <v>44486</v>
       </c>
       <c r="AU5" s="39">
         <f t="shared" si="1"/>
-        <v>44490</v>
+        <v>44487</v>
       </c>
       <c r="AV5" s="39">
         <f t="shared" si="1"/>
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="AW5" s="39">
         <f t="shared" si="1"/>
-        <v>44492</v>
+        <v>44489</v>
       </c>
       <c r="AX5" s="39">
         <f t="shared" si="1"/>
-        <v>44493</v>
+        <v>44490</v>
       </c>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
@@ -8378,7 +8371,7 @@
       <c r="E6" s="1">
         <v>44442</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="44">
         <v>1</v>
       </c>
       <c r="G6" s="12">
@@ -8408,7 +8401,7 @@
       <c r="E7" s="1">
         <v>44442</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="44">
         <v>1</v>
       </c>
       <c r="G7" s="12">
@@ -8438,7 +8431,7 @@
       <c r="E8" s="1">
         <v>44446</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="44">
         <v>2</v>
       </c>
       <c r="G8" s="12">
@@ -8468,7 +8461,7 @@
       <c r="E9" s="1">
         <v>44442</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="44">
         <v>1</v>
       </c>
       <c r="G9" s="12">
@@ -8498,7 +8491,7 @@
       <c r="E10" s="1">
         <v>44439</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="44">
         <v>1</v>
       </c>
       <c r="G10" s="12">
@@ -8528,7 +8521,7 @@
       <c r="E11" s="1">
         <v>44439</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="44">
         <v>2</v>
       </c>
       <c r="G11" s="12">
@@ -8560,7 +8553,7 @@
       <c r="E12" s="1">
         <v>44455</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="44">
         <v>2</v>
       </c>
       <c r="G12" s="12">
@@ -8592,7 +8585,7 @@
       <c r="E13" s="1">
         <v>44473</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="44">
         <v>1</v>
       </c>
       <c r="G13" s="12">
@@ -8622,7 +8615,7 @@
       <c r="E14" s="1">
         <v>44474</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="44">
         <v>1</v>
       </c>
       <c r="G14" s="12">
@@ -8652,7 +8645,7 @@
       <c r="E15" s="1">
         <v>44481</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="44">
         <v>5</v>
       </c>
       <c r="G15" s="12">
@@ -8692,7 +8685,7 @@
       <c r="E16" s="1">
         <v>44482</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="44">
         <v>1</v>
       </c>
       <c r="G16" s="12">
@@ -8734,7 +8727,7 @@
       <c r="E17" s="1">
         <v>44474</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="44">
         <v>3</v>
       </c>
       <c r="G17" s="12">
@@ -8774,7 +8767,7 @@
       <c r="E18" s="1">
         <v>44480</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="44">
         <v>2</v>
       </c>
       <c r="G18" s="12">
@@ -8814,7 +8807,7 @@
       <c r="E19" s="1">
         <v>44482</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="44">
         <v>2</v>
       </c>
       <c r="G19" s="12">
@@ -8854,7 +8847,7 @@
       <c r="E20" s="1">
         <v>44491</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="44">
         <v>7</v>
       </c>
       <c r="G20" s="12">
@@ -8893,7 +8886,7 @@
       <c r="E21" s="1">
         <v>44496</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="44">
         <v>3</v>
       </c>
       <c r="G21" s="12">
@@ -8928,7 +8921,7 @@
       <c r="E22" s="1">
         <v>44491</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="44">
         <v>1</v>
       </c>
       <c r="G22" s="12">
@@ -8965,7 +8958,7 @@
       <c r="E23" s="1">
         <v>44469</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="44">
         <v>6</v>
       </c>
       <c r="G23" s="12">
@@ -8995,7 +8988,7 @@
       <c r="E24" s="1">
         <v>44550</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="44">
         <v>1</v>
       </c>
       <c r="G24" s="12">
@@ -9027,7 +9020,7 @@
       <c r="E25" s="1">
         <v>44315</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="44">
         <v>5</v>
       </c>
       <c r="G25" s="12">
@@ -9057,7 +9050,7 @@
       <c r="E26" s="1">
         <v>44343</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="44">
         <v>5</v>
       </c>
       <c r="G26" s="12">
@@ -9087,7 +9080,7 @@
       <c r="E27" s="1">
         <v>44484</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="44">
         <v>15</v>
       </c>
       <c r="G27" s="12">
@@ -9117,7 +9110,7 @@
       <c r="E28" s="1">
         <v>44603</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="44">
         <v>85</v>
       </c>
       <c r="G28" s="12">
@@ -9147,7 +9140,7 @@
       <c r="E29" s="1">
         <v>44502</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="44">
         <v>1</v>
       </c>
       <c r="G29" s="12">
@@ -9179,7 +9172,7 @@
       <c r="E30" s="1">
         <v>44459</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="44">
         <v>4</v>
       </c>
       <c r="G30" s="12">
@@ -9209,7 +9202,7 @@
       <c r="E31" s="1">
         <v>44508</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="44">
         <v>1</v>
       </c>
       <c r="G31" s="12">
@@ -9241,7 +9234,7 @@
       <c r="E32" s="1">
         <v>44460</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="44">
         <v>1</v>
       </c>
       <c r="G32" s="12">
@@ -9271,7 +9264,7 @@
       <c r="E33" s="1">
         <v>44488</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="44">
         <v>2</v>
       </c>
       <c r="G33" s="12">
@@ -9299,10 +9292,10 @@
         <v>44489</v>
       </c>
       <c r="E34" s="1">
-        <v>44517</v>
-      </c>
-      <c r="F34" s="41">
-        <v>21</v>
+        <v>44530</v>
+      </c>
+      <c r="F34" s="44">
+        <v>30</v>
       </c>
       <c r="G34" s="12">
         <v>0</v>
@@ -9331,7 +9324,7 @@
       <c r="E35" s="1">
         <v>44575</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="44">
         <v>21</v>
       </c>
       <c r="G35" s="12">
@@ -9361,7 +9354,7 @@
       <c r="E36" s="1">
         <v>44578</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="44">
         <v>1</v>
       </c>
       <c r="G36" s="12">
@@ -9391,7 +9384,7 @@
       <c r="E37" s="1">
         <v>44546</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="44">
         <v>5</v>
       </c>
       <c r="G37" s="12">
@@ -9423,7 +9416,7 @@
       <c r="E38" s="1">
         <v>44496</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="44">
         <v>3</v>
       </c>
       <c r="G38" s="12">
@@ -9453,7 +9446,7 @@
       <c r="E39" s="1">
         <v>44607</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="44">
         <v>21</v>
       </c>
       <c r="G39" s="12">
@@ -9483,7 +9476,7 @@
       <c r="E40" s="1">
         <v>44537</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="44">
         <v>5</v>
       </c>
       <c r="G40" s="12">
@@ -9515,7 +9508,7 @@
       <c r="E41" s="1">
         <v>44539</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="44">
         <v>6</v>
       </c>
       <c r="G41" s="12">
@@ -9547,7 +9540,7 @@
       <c r="E42" s="1">
         <v>44531</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="44">
         <v>28</v>
       </c>
       <c r="G42" s="12">
@@ -9579,7 +9572,7 @@
       <c r="E43" s="1">
         <v>44575</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="44">
         <v>32</v>
       </c>
       <c r="G43" s="12">
@@ -9609,7 +9602,7 @@
       <c r="E44" s="1">
         <v>44578</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="44">
         <v>1</v>
       </c>
       <c r="G44" s="12">
@@ -9639,7 +9632,7 @@
       <c r="E45" s="1">
         <v>44579</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="44">
         <v>1</v>
       </c>
       <c r="G45" s="12">
@@ -9669,7 +9662,7 @@
       <c r="E46" s="1">
         <v>44579</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="44">
         <v>1</v>
       </c>
       <c r="G46" s="12">
@@ -9699,7 +9692,7 @@
       <c r="E47" s="1">
         <v>44578</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="44">
         <v>1</v>
       </c>
       <c r="G47" s="12">
@@ -9731,7 +9724,7 @@
       <c r="E48" s="1">
         <v>44498</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="44">
         <v>2</v>
       </c>
       <c r="G48" s="12">
@@ -9761,7 +9754,7 @@
       <c r="E49" s="1">
         <v>44502</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="44">
         <v>1</v>
       </c>
       <c r="G49" s="12">
@@ -9793,7 +9786,7 @@
       <c r="E50" s="1">
         <v>44547</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="44">
         <v>1</v>
       </c>
       <c r="G50" s="12">
@@ -9825,7 +9818,7 @@
       <c r="E51" s="1">
         <v>44643</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51" s="44">
         <v>7</v>
       </c>
       <c r="G51" s="12">
@@ -9855,7 +9848,7 @@
       <c r="E52" s="1">
         <v>44649</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="44">
         <v>5</v>
       </c>
       <c r="G52" s="12">
@@ -9887,7 +9880,7 @@
       <c r="E53" s="1">
         <v>44600</v>
       </c>
-      <c r="F53" s="41">
+      <c r="F53" s="44">
         <v>2</v>
       </c>
       <c r="G53" s="12">
@@ -10210,7 +10203,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AJ5">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="71" priority="19">
       <formula>K$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10229,63 +10222,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AJ51">
-    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="13" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="14" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>AND(K$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="17" stopIfTrue="1">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,K$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="66" priority="18">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,K$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AQ5">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>AK$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AQ51">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="8" stopIfTrue="1">
       <formula>AND(WEEKDAY(AK$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="62" priority="9">
       <formula>AND(AK$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AK$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="10" stopIfTrue="1">
       <formula>AND(AK$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AK$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>AND(AK$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AK$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AX5">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>AR$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AX51">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(AR$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>AND(AR$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AR$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="4" stopIfTrue="1">
       <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AR$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AR$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10426,7 +10419,7 @@
         <v>20</v>
       </c>
       <c r="P2">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10462,7 +10455,7 @@
       </c>
       <c r="M3" s="34">
         <f>J3/$J$4</f>
-        <v>4.8929663608562692E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N3" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(M3)</f>
@@ -10496,7 +10489,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="6">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" t="s">
@@ -10504,7 +10497,7 @@
       </c>
       <c r="M4" s="34">
         <f>1-M3</f>
-        <v>0.95107033639143734</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="N4" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(M4)</f>
@@ -10563,8 +10556,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10640,10 +10633,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="41">
         <v>1590</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="41">
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
@@ -10675,10 +10668,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>1431</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <v>0</v>
       </c>
       <c r="L3" s="2"/>
@@ -10710,10 +10703,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="41">
         <v>2438</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="41">
         <v>0</v>
       </c>
       <c r="L4" s="2"/>
@@ -10745,10 +10738,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <v>2544</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10779,10 +10772,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="41">
         <v>4664</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10813,10 +10806,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>5088</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10847,10 +10840,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>19398</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>7759.2</v>
       </c>
     </row>
@@ -10881,10 +10874,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42">
+      <c r="I9" s="41">
+        <v>0</v>
+      </c>
+      <c r="J9" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10915,10 +10908,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="42">
+      <c r="I10" s="41">
+        <v>0</v>
+      </c>
+      <c r="J10" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10949,10 +10942,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <v>12205</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10983,10 +10976,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="42">
-        <v>0</v>
-      </c>
-      <c r="J12" s="42">
+      <c r="I12" s="41">
+        <v>0</v>
+      </c>
+      <c r="J12" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11017,10 +11010,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42">
+      <c r="I13" s="41">
+        <v>0</v>
+      </c>
+      <c r="J13" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11051,10 +11044,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
+      <c r="I14" s="41">
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11085,10 +11078,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
+      <c r="I15" s="41">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11119,10 +11112,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="41">
         <v>32765</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11153,10 +11146,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="41">
         <v>5745.19</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>1149.03</v>
       </c>
     </row>
@@ -11187,10 +11180,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="41">
         <v>6212</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11221,10 +11214,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="41">
         <v>7177.26</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11255,10 +11248,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="41">
         <v>3215</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>3215.2</v>
       </c>
     </row>
@@ -11289,10 +11282,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="41">
         <v>525</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11323,10 +11316,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="41">
         <v>3884</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11357,10 +11350,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>10148</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11391,10 +11384,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <v>854.6</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11425,10 +11418,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>14966</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>5104.92</v>
       </c>
     </row>
@@ -11459,10 +11452,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="42">
-        <v>0</v>
-      </c>
-      <c r="J26" s="42">
+      <c r="I26" s="41">
+        <v>0</v>
+      </c>
+      <c r="J26" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11493,10 +11486,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>6226</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11527,10 +11520,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <v>4667</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11548,11 +11541,11 @@
         <v>44489</v>
       </c>
       <c r="E29">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44517</v>
+        <v>44530</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -11561,10 +11554,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="42">
-        <v>0</v>
-      </c>
-      <c r="J29" s="42">
+      <c r="I29" s="41">
+        <v>0</v>
+      </c>
+      <c r="J29" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11595,10 +11588,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <v>13343.28</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11629,10 +11622,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="41">
         <v>2989</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11663,10 +11656,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="41">
         <v>31998</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="41">
         <v>4800</v>
       </c>
     </row>
@@ -11697,10 +11690,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="41">
         <v>1535.94</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11730,10 +11723,10 @@
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="43">
-        <v>0</v>
-      </c>
-      <c r="J34" s="42">
+      <c r="I34" s="42">
+        <v>0</v>
+      </c>
+      <c r="J34" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11764,10 +11757,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I35" s="42">
-        <v>0</v>
-      </c>
-      <c r="J35" s="42">
+      <c r="I35" s="41">
+        <v>0</v>
+      </c>
+      <c r="J35" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11794,14 +11787,14 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="41">
         <v>19988.28</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11832,10 +11825,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I37" s="43">
-        <v>0</v>
-      </c>
-      <c r="J37" s="42">
+      <c r="I37" s="42">
+        <v>0</v>
+      </c>
+      <c r="J37" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11866,10 +11859,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="41">
         <v>647</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11900,10 +11893,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I39" s="43">
-        <v>0</v>
-      </c>
-      <c r="J39" s="42">
+      <c r="I39" s="42">
+        <v>0</v>
+      </c>
+      <c r="J39" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11934,10 +11927,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I40" s="42">
-        <v>0</v>
-      </c>
-      <c r="J40" s="42">
+      <c r="I40" s="41">
+        <v>0</v>
+      </c>
+      <c r="J40" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11968,10 +11961,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="41">
         <v>4641</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12002,10 +11995,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I42" s="42">
+      <c r="I42" s="41">
         <v>9013.82</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="41">
         <v>9013.82</v>
       </c>
     </row>
@@ -12036,10 +12029,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I43" s="43">
-        <v>0</v>
-      </c>
-      <c r="J43" s="42">
+      <c r="I43" s="42">
+        <v>0</v>
+      </c>
+      <c r="J43" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12070,10 +12063,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="41">
         <v>28800</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="41">
         <v>8540</v>
       </c>
     </row>
@@ -12104,10 +12097,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I45" s="43">
-        <v>0</v>
-      </c>
-      <c r="J45" s="42">
+      <c r="I45" s="42">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12138,10 +12131,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I46" s="43">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42">
+      <c r="I46" s="42">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12172,10 +12165,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="41">
         <v>2805</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12206,10 +12199,10 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I48" s="42">
-        <v>0</v>
-      </c>
-      <c r="J48" s="42">
+      <c r="I48" s="41">
+        <v>0</v>
+      </c>
+      <c r="J48" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12240,320 +12233,320 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I49" s="42">
-        <v>0</v>
-      </c>
-      <c r="J49" s="42">
+      <c r="I49" s="41">
+        <v>0</v>
+      </c>
+      <c r="J49" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
     </row>
     <row r="79" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
     </row>
     <row r="80" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
     </row>
     <row r="82" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="83" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
     </row>
     <row r="85" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
     </row>
     <row r="86" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
     </row>
     <row r="88" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
     </row>
     <row r="90" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
     </row>
     <row r="91" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
     </row>
     <row r="92" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
     </row>
     <row r="94" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
     </row>
     <row r="95" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
     </row>
     <row r="98" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
     </row>
     <row r="100" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
     </row>
     <row r="101" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
     </row>
     <row r="102" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
     </row>
     <row r="103" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
     </row>
     <row r="104" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
     </row>
     <row r="105" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
     </row>
     <row r="106" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
     </row>
     <row r="107" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
     </row>
     <row r="108" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
     </row>
     <row r="109" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
     </row>
     <row r="110" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
     </row>
     <row r="111" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
     </row>
     <row r="112" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/JVE_Planning.xlsx
+++ b/planning/JVE_Planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\workspace\perso\maison\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\maison\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD85EA32-B1AF-4A61-8F38-18E9F0016E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -17,13 +18,13 @@
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$A$1:$X$46</definedName>
     <definedName name="Slicer_Manager">#N/A</definedName>
     <definedName name="Slicer_Project">#N/A</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$A:$AX</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0\ &quot;Days&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -631,7 +632,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="74">
     <dxf>
@@ -1128,7 +1129,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="No Border" pivot="0" table="0" count="10">
+    <tableStyle name="No Border" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="73"/>
       <tableStyleElement type="headerRow" dxfId="72"/>
     </tableStyle>
@@ -1401,7 +1402,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1538,7 +1539,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1546,6 +1546,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1577,7 +1578,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2435,7 +2436,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2481,7 +2481,6 @@
                   <a:avLst/>
                 </a:prstGeom>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -2671,7 +2670,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2682,9 +2680,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3E89-438F-9816-332D1E0E14DC}"/>
                 </c:ext>
@@ -2769,7 +2765,7 @@
             <c:numRef>
               <c:f>Workings!$B$3</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0,,"M"</c:formatCode>
+                <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>39582.17</c:v>
@@ -2952,7 +2948,7 @@
             <c:numRef>
               <c:f>Workings!$C$3</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0,,"M"</c:formatCode>
+                <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>261504.37</c:v>
@@ -3005,7 +3001,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.0,,&quot;M&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0.0\ \ &quot;M&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3023,7 +3019,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3031,6 +3026,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3075,7 +3071,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3229,7 +3225,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3329,7 +3324,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3436,7 +3430,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3571,7 +3564,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3579,6 +3571,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3609,7 +3602,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3784,7 +3777,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3792,6 +3784,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4949,7 +4942,7 @@
             <xdr:cNvPr id="8" name="Manager">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5027,7 +5020,7 @@
             <xdr:cNvPr id="3" name="Project">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5103,7 +5096,7 @@
         <xdr:cNvPr id="14" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5141,7 +5134,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5184,7 +5177,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5229,7 +5222,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5267,7 +5260,7 @@
         <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5305,7 +5298,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5670,7 +5663,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jean-Marc VERLAINE" refreshedDate="44439.501697916668" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jean-Marc VERLAINE" refreshedDate="44439.501697916668" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -6478,7 +6471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Gantt" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Gantt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:J54" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField name="Topic" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7370,91 +7363,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Days_Completed" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="17">
-        <item x="12"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Budget_v_Actual" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -7602,8 +7511,92 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="12"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Project" sourceName="Project">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Project" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Project">
   <pivotTables>
     <pivotTable tabId="3" name="Gantt"/>
     <pivotTable tabId="4" name="Days_Completed"/>
@@ -7635,7 +7628,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Manager" sourceName="Manager">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Manager" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Manager">
   <pivotTables>
     <pivotTable tabId="3" name="Gantt"/>
     <pivotTable tabId="4" name="Budget_v_Actual"/>
@@ -7666,30 +7659,30 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Project" cache="Slicer_Project" caption="Topic" columnCount="5" style="SlicerStyleLight2" rowHeight="252000"/>
-  <slicer name="Manager" cache="Slicer_Manager" caption="Acteur" columnCount="5" style="SlicerStyleLight2" rowHeight="252000"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Project" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Project" caption="Topic" columnCount="5" style="SlicerStyleLight2" rowHeight="252000"/>
+  <slicer name="Manager" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Manager" caption="Acteur" columnCount="5" style="SlicerStyleLight2" rowHeight="252000"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
-  <autoFilter ref="A1:J49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
+  <autoFilter ref="A1:J49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Project"/>
-    <tableColumn id="2" name="Task"/>
-    <tableColumn id="3" name="Manager"/>
-    <tableColumn id="4" name="Start Date" dataDxfId="5"/>
-    <tableColumn id="5" name="Duration"/>
-    <tableColumn id="9" name="End Date" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Manager"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Duration"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="End Date" dataDxfId="4">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Days completed" dataDxfId="3"/>
-    <tableColumn id="6" name="Progress" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Days completed" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Progress" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Budget" dataDxfId="1"/>
-    <tableColumn id="8" name="Actual" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Budget" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7991,18 +7984,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
@@ -8026,7 +8019,7 @@
       <c r="B1" s="26"/>
       <c r="C1" s="46" t="str">
         <f>TEXT(MIN(D6:D51),"d-mmm-yy")&amp;" to "&amp;TEXT(MAX(E6:E51),"d-mmm-yy")</f>
-        <v>23-Apr-21 to 23-Mar-22</v>
+        <v>d-avr-yy to d-mars-yy</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
@@ -10283,7 +10276,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.14000000000000001" right="0.12" top="0.3" bottom="0.12" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10340,7 +10333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -10348,7 +10341,7 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5703125" customWidth="1"/>
@@ -10404,7 +10397,7 @@
       </c>
       <c r="G2" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F2)</f>
-        <v>=COUNTIF(Dashboard!H6:H51,"="&amp;0)</v>
+        <v>=NB.SI(Dashboard!H6:H51;"="&amp;0)</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
@@ -10441,7 +10434,7 @@
       </c>
       <c r="G3" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F3)</f>
-        <v>=COUNTIFS(Dashboard!H6:H51,"&lt;&gt;"&amp;0,Dashboard!H6:H51,"&lt;"&amp;1)</v>
+        <v>=NB.SI.ENS(Dashboard!H6:H51;"&lt;&gt;"&amp;0;Dashboard!H6:H51;"&lt;"&amp;1)</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>22</v>
@@ -10483,7 +10476,7 @@
       </c>
       <c r="G4" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F4)</f>
-        <v>=COUNTIF(Dashboard!H6:H51,"="&amp;1)</v>
+        <v>=NB.SI(Dashboard!H6:H51;"="&amp;1)</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>27</v>
@@ -10535,7 +10528,7 @@
       </c>
       <c r="G6" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F6)</f>
-        <v>=COUNTA(Dashboard!B6:B50)</v>
+        <v>=NBVAL(Dashboard!B6:B50)</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -10552,15 +10545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -10687,14 +10680,14 @@
         <v>36</v>
       </c>
       <c r="D4" s="1">
-        <v>44445</v>
+        <v>44447</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -10722,14 +10715,14 @@
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -10756,14 +10749,14 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -10793,18 +10786,18 @@
         <v>44438</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I7" s="41">
         <v>5088</v>

--- a/planning/JVE_Planning.xlsx
+++ b/planning/JVE_Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\maison\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD85EA32-B1AF-4A61-8F38-18E9F0016E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E8B7F-B709-4622-9D8E-79BBF60CC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -21,11 +21,13 @@
     <definedName name="Slicer_Manager">#N/A</definedName>
     <definedName name="Slicer_Project">#N/A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$A:$AX</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Data!$A:$K</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="152" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -39,12 +41,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="123">
   <si>
     <t>Project</t>
   </si>
@@ -382,10 +391,37 @@
     <t>Bayard</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>JM Verlaine</t>
   </si>
   <si>
-    <t>JM Verlaine</t>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>10 jours chappe, protole de chauffe ensuite (mi-novembtre) plaque au mur dans la foulée une fois seche de 5/6 jours.</t>
+  </si>
+  <si>
+    <t>avant le plafonneur</t>
+  </si>
+  <si>
+    <t>faut les murs plafonnés.</t>
+  </si>
+  <si>
+    <t>après séchage 10 jours tranquille, avant le chauffagiste.</t>
+  </si>
+  <si>
+    <t>prévoir chappes vers le 15 novembre, plafonneur dans la foulée le local technique. Poser les tuyeaux au sols entre l'isolation et la chappe.</t>
+  </si>
+  <si>
+    <t>prévoir 8 cm par rapport au niveau 0 / 3 jours séchage, 2 réalisation</t>
+  </si>
+  <si>
+    <t>Correction Grande baie vitrée</t>
+  </si>
+  <si>
+    <t>Montage correction baie vitrée</t>
+  </si>
+  <si>
+    <t>Aménagement espace silo et chaudière</t>
   </si>
 </sst>
 </file>
@@ -529,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -621,6 +657,9 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -636,10 +675,217 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF7D7D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF7D7D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF7D7D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF7D7D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF7D7D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF7D7D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF7D7D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF7D7D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF7D7D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF7D7D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF7D7D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF7D7D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -659,10 +905,16 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
@@ -882,219 +1134,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF7D7D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF7D7D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF7D7D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF7D7D"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF7D7D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF7D7D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF7D7D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF7D7D"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF7D7D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF7D7D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF7D7D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF7D7D"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1439,6 +1478,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:explosion val="111"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1503,10 +1543,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.15136332138541317</c:v>
+                  <c:v>0.14964656349534036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8486366786145868</c:v>
+                  <c:v>0.85035343650465967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,6 +2411,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="General" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2436,6 +2477,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2481,6 +2523,12 @@
                   <a:avLst/>
                 </a:prstGeom>
               </c15:spPr>
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.32635789777852553"/>
+                  <c:h val="0.32936309867282171"/>
+                </c:manualLayout>
+              </c15:layout>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -2559,10 +2607,11 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-4.6153808880428929E-2"/>
-              <c:y val="4.0379567938623056E-7"/>
+              <c:x val="-0.51225304281004436"/>
+              <c:y val="3.6064627808842493E-7"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2605,8 +2654,8 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
-                  <c:w val="0.43802791195000046"/>
-                  <c:h val="0.2831108419139915"/>
+                  <c:w val="0.48418158277606482"/>
+                  <c:h val="0.28311093479515287"/>
                 </c:manualLayout>
               </c15:layout>
             </c:ext>
@@ -2661,6 +2710,18 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-3E89-438F-9816-332D1E0E14DC}"/>
@@ -2670,6 +2731,36 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2680,12 +2771,25 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32635789777852553"/>
+                      <c:h val="0.32936309867282171"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3E89-438F-9816-332D1E0E14DC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2807,6 +2911,15 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF7D7D"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-3E89-438F-9816-332D1E0E14DC}"/>
@@ -2818,10 +2931,11 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6153808880428929E-2"/>
-                  <c:y val="4.0379567938623056E-7"/>
+                  <c:x val="-0.51225304281004436"/>
+                  <c:y val="3.6064627808842493E-7"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2864,8 +2978,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.43802791195000046"/>
-                      <c:h val="0.2831108419139915"/>
+                      <c:w val="0.48418158277606482"/>
+                      <c:h val="0.28311093479515287"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -2951,7 +3065,7 @@
                 <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>261504.37</c:v>
+                  <c:v>264504.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,8 +3232,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.7230972084835771E-2"/>
-          <c:y val="9.2854047396391665E-2"/>
+          <c:x val="1.517247437846987E-3"/>
+          <c:y val="9.285366369581409E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3250,7 +3364,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,7 +3463,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,7 +3569,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,10 +3817,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>7.6666666666666661E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.92333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3743,8 +3857,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9206184374227778E-2"/>
-          <c:y val="1.9047619047619049E-2"/>
+          <c:x val="1.6479737319623252E-3"/>
+          <c:y val="1.9047564702089355E-2"/>
           <c:w val="0.92560781731413377"/>
           <c:h val="0.30714510686164231"/>
         </c:manualLayout>
@@ -4917,7 +5031,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="Workings!$P$2" horiz="1" max="360" page="7" val="142"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="Workings!$P$2" horiz="1" max="360" page="7" val="205"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4925,18 +5039,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2066924</xdr:colOff>
+      <xdr:colOff>243235</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>786198</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762966</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Manager">
@@ -4959,7 +5073,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4969,8 +5083,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3691777" y="521074"/>
-              <a:ext cx="3459362" cy="1417544"/>
+              <a:off x="3646680" y="525037"/>
+              <a:ext cx="3458542" cy="1414811"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5009,7 +5123,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1963937</xdr:colOff>
+      <xdr:colOff>175096</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
@@ -5080,16 +5194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>348502</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11643</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>384361</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>686374</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>363070</xdr:rowOff>
+      <xdr:rowOff>374686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5118,16 +5232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>409573</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188871</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>23231</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>399053</xdr:rowOff>
+      <xdr:rowOff>399052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5158,16 +5272,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
+          <xdr:colOff>39494</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5206,14 +5320,14 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295836</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>278780</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90372</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>246529</xdr:rowOff>
     </xdr:to>
@@ -5244,14 +5358,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>617445</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454824</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344924</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>414616</xdr:rowOff>
     </xdr:to>
@@ -5282,16 +5396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244863</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>30667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533170</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>30667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Workings!M3">
       <xdr:nvSpPr>
@@ -5306,8 +5420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667625" y="723900"/>
-          <a:ext cx="476250" cy="276225"/>
+          <a:off x="9746631" y="739234"/>
+          <a:ext cx="288307" cy="278781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5345,7 +5459,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>5%</a:t>
+            <a:t>8%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1200">
             <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
@@ -5364,7 +5478,7 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.2327</cdr:x>
-      <cdr:y>7.41187E-7</cdr:y>
+      <cdr:y>7.40511E-7</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.79874</cdr:x>
@@ -5383,8 +5497,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="355156" y="1"/>
-          <a:ext cx="863914" cy="421418"/>
+          <a:off x="357033" y="1"/>
+          <a:ext cx="868477" cy="421802"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5663,222 +5777,239 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jean-Marc VERLAINE" refreshedDate="44439.501697916668" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="bigbi" refreshedDate="44504.692816666669" missingItemsLimit="0" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="52" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Project" numFmtId="0">
       <sharedItems count="16">
+        <s v="Electricite"/>
         <s v="Gros-œuvre"/>
+        <s v="Sanitaire"/>
         <s v="Menuiserie extétieure"/>
-        <s v="Façade Côté Sud"/>
-        <s v="Toiture"/>
-        <s v="Sanitaire"/>
-        <s v="Electricite"/>
+        <s v="Sols"/>
         <s v="VMC"/>
-        <s v="Sols"/>
+        <s v="Aménagement intérieur"/>
+        <s v="Menuiserie intérieure"/>
         <s v="Murs"/>
+        <s v="Plâtres"/>
         <s v="Chauffage"/>
-        <s v="Plâtres"/>
-        <s v="Menuiserie intérieure"/>
-        <s v="Aménagement intérieur"/>
         <s v="Salle de bain"/>
         <s v="Cuisine"/>
+        <s v="Toiture"/>
+        <s v="Façade Côté Sud"/>
         <s v="Déménagement"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
-      <sharedItems count="48">
+      <sharedItems count="51">
+        <s v="Cablâge initial et mise en terre"/>
+        <s v="Carotages (21x)"/>
+        <s v="Ouverture fenêtres"/>
+        <s v="Colonne en béton pour baie vitrée"/>
         <s v="Adaptation Porte d'entrée"/>
         <s v="Remplacement linteaux en bois"/>
+        <s v="Conduites froid et chaud et évacuation"/>
+        <s v="Montage"/>
+        <s v="Chappe sur marches d'escalier"/>
+        <s v="Correction Grande baie vitrée"/>
+        <s v="Cablâge suite + réseau partie "/>
         <s v="Escaliers"/>
         <s v="Démolition cheminée"/>
-        <s v="Colonne en béton pour baie vitrée"/>
-        <s v="Ouverture fenêtres"/>
-        <s v="Montage"/>
-        <s v="Montage échaffaudage"/>
-        <s v="Démontage Eternit"/>
-        <s v="Isolation et nouveau bardage"/>
-        <s v="Démontage échaffaudage"/>
+        <s v="Installation conduite et appareillage"/>
+        <s v="Mise en route"/>
+        <s v="Montage correction baie vitrée"/>
+        <s v="Installation des tableaux et divers appareillages"/>
+        <s v="Isolation"/>
+        <s v="Chappe"/>
+        <s v="Pose des tablettes de fenêtre"/>
+        <s v="Garde-corp mezzanine"/>
+        <s v="Séchage chappe"/>
+        <s v="Déplacement du compteur électrique"/>
+        <s v="Isolation des murs intérieurs"/>
+        <s v="Travaux de sablage du mur apparent"/>
+        <s v="Travaux de plâtrage cloisons et murs porteurs"/>
+        <s v="Aménagement espace silo et chaudière"/>
+        <s v="inst chaudière et protocole mise en chauffe"/>
+        <s v="Pose du parquet"/>
+        <s v="installation adoucisseur d'eau"/>
+        <s v="Carrelage sur marches"/>
+        <s v="Enduits et peintures"/>
+        <s v="Carrelages au mur, douche  et finitions"/>
+        <s v="Montage cuisine"/>
+        <s v="Mobilier de sdb et installation"/>
         <s v="Démontage toiture existante"/>
         <s v="Travaux de charpente"/>
         <s v="Pause des vélux"/>
         <s v="Revêtement toiture"/>
         <s v="Pose des panneaux photovoltaïques"/>
         <s v="Isolation Toiture"/>
-        <s v="Conduites froid et chaud et évacuation"/>
-        <s v="Cablâge initial et mise en terre"/>
-        <s v="Carotages (21x)"/>
-        <s v="Cablâge suite + réseau partie "/>
-        <s v="Installation des tableaux et divers appareillages"/>
-        <s v="Déplacement du compteur électrique"/>
-        <s v="Installation conduite et appareillage"/>
-        <s v="Mise en route"/>
-        <s v="Isolation"/>
-        <s v="Chappe"/>
-        <s v="Séchage chappe"/>
-        <s v="Isolation des murs intérieurs"/>
-        <s v="Travaux de sablage du mur apparent"/>
-        <s v="inst chaudière et protocole mise en chauffe"/>
-        <s v="installation adoucisseur d'eau"/>
-        <s v="Travaux de plâtrage cloisons et murs porteurs"/>
+        <s v="Montage échaffaudage"/>
+        <s v="Démontage Eternit"/>
+        <s v="Isolation et nouveau bardage"/>
+        <s v="Nettoyage"/>
+        <s v="Démontage échaffaudage"/>
+        <s v="Déménagement"/>
         <s v="commande escalier et portes , délais"/>
-        <s v="Pose du parquet"/>
-        <s v="Pose des tablettes de fenêtre"/>
-        <s v="Chappe sur marches d'escalier"/>
         <s v="Pause escalier en bois"/>
-        <s v="Carrelage sur marches"/>
-        <s v="Carrelages au mur, douche  et finitions"/>
-        <s v="Mobilier de sdb et installation"/>
-        <s v="Enduits et peintures"/>
-        <s v="Montage cuisine"/>
         <s v="Portes intérieures"/>
         <s v="Mobilier sur mesure"/>
-        <s v="Garde-corp mezzanine"/>
-        <s v="Nettoyage"/>
-        <s v="Déménagement"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Manager" numFmtId="0">
       <sharedItems count="15">
+        <s v="Christophe Braconnier"/>
         <s v="Ets Construction"/>
+        <s v="Alter Energie"/>
         <s v="Arnaud Pierret"/>
-        <s v="Bertrand Hiernaux"/>
-        <s v="Alain Invernizzi"/>
-        <s v="Alter Energie"/>
         <s v="Samuel Schmit"/>
-        <s v="Christophe Braconnier"/>
+        <s v="Siroco"/>
         <s v="Ores"/>
         <s v="A.L Façade"/>
+        <s v="Jean-Marc"/>
         <s v="Bayard"/>
-        <s v="Jean-Marc"/>
-        <s v="Menuiserie Poncin"/>
         <s v="JM Verlaine"/>
         <s v="Interni"/>
-        <s v="Siroco"/>
+        <s v="Alain Invernizzi"/>
+        <s v="Bertrand Hiernaux"/>
+        <s v="Menuiserie Poncin"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Start Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-04-23T00:00:00" maxDate="2022-03-24T00:00:00" count="39">
-        <d v="2021-09-03T00:00:00"/>
-        <d v="2021-09-06T00:00:00"/>
-        <d v="2021-08-31T00:00:00"/>
-        <d v="2021-08-30T00:00:00"/>
-        <d v="2021-09-15T00:00:00"/>
-        <d v="2021-10-04T00:00:00"/>
-        <d v="2021-10-05T00:00:00"/>
-        <d v="2021-10-06T00:00:00"/>
-        <d v="2021-10-13T00:00:00"/>
-        <d v="2021-10-01T00:00:00"/>
-        <d v="2021-10-08T00:00:00"/>
-        <d v="2021-10-12T00:00:00"/>
-        <d v="2021-10-14T00:00:00"/>
-        <d v="2021-10-22T00:00:00"/>
-        <d v="2021-10-23T00:00:00"/>
-        <d v="2021-09-23T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-04-23T00:00:00" maxDate="2022-08-03T00:00:00" count="45">
         <d v="2021-04-23T00:00:00"/>
         <d v="2021-05-21T00:00:00"/>
-        <d v="2021-09-27T00:00:00"/>
-        <d v="2021-10-16T00:00:00"/>
+        <d v="2021-08-30T00:00:00"/>
+        <d v="2021-08-31T00:00:00"/>
+        <d v="2021-09-03T00:00:00"/>
+        <d v="2021-09-23T00:00:00"/>
+        <d v="2021-10-06T00:00:00"/>
+        <d v="2021-10-18T00:00:00"/>
         <d v="2021-11-02T00:00:00"/>
+        <d v="2021-11-06T00:00:00"/>
         <d v="2021-11-08T00:00:00"/>
-        <d v="2021-09-21T00:00:00"/>
-        <d v="2021-10-18T00:00:00"/>
-        <d v="2021-10-20T00:00:00"/>
-        <d v="2021-10-24T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2021-11-11T00:00:00"/>
+        <d v="2021-11-15T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-11-23T00:00:00"/>
+        <d v="2021-11-26T00:00:00"/>
+        <d v="2021-11-29T00:00:00"/>
+        <d v="2021-11-30T00:00:00"/>
         <d v="2021-12-01T00:00:00"/>
         <d v="2021-12-02T00:00:00"/>
-        <d v="2021-12-20T00:00:00"/>
-        <d v="2021-10-25T00:00:00"/>
-        <d v="2021-12-10T00:00:00"/>
-        <d v="2022-02-05T00:00:00"/>
-        <d v="2021-12-17T00:00:00"/>
-        <d v="2022-01-17T00:00:00"/>
-        <d v="2021-10-28T00:00:00"/>
-        <d v="2022-01-18T00:00:00"/>
-        <d v="2022-01-15T00:00:00"/>
+        <d v="2021-12-06T00:00:00"/>
+        <d v="2021-12-13T00:00:00"/>
+        <d v="2022-01-10T00:00:00"/>
+        <d v="2022-01-19T00:00:00"/>
+        <d v="2022-01-20T00:00:00"/>
+        <d v="2022-01-22T00:00:00"/>
+        <d v="2022-01-27T00:00:00"/>
+        <d v="2022-01-28T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-02-04T00:00:00"/>
+        <d v="2022-02-14T00:00:00"/>
+        <d v="2022-02-17T00:00:00"/>
+        <d v="2022-02-21T00:00:00"/>
+        <d v="2022-02-23T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-03-08T00:00:00"/>
+        <d v="2022-03-09T00:00:00"/>
         <d v="2022-03-15T00:00:00"/>
+        <d v="2022-03-16T00:00:00"/>
         <d v="2022-03-23T00:00:00"/>
+        <d v="2022-06-01T00:00:00"/>
+        <d v="2022-08-01T00:00:00"/>
+        <d v="2022-08-02T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Duration" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85" count="13">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85" count="12">
+        <n v="5"/>
+        <n v="2"/>
         <n v="1"/>
-        <n v="2"/>
-        <n v="5"/>
+        <n v="6"/>
         <n v="3"/>
-        <n v="7"/>
-        <n v="6"/>
         <n v="15"/>
         <n v="85"/>
-        <n v="4"/>
-        <n v="30"/>
+        <n v="10"/>
         <n v="28"/>
+        <n v="21"/>
+        <n v="7"/>
         <n v="32"/>
-        <n v="21"/>
       </sharedItems>
     </cacheField>
     <cacheField name="End Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-04-29T00:00:00" maxDate="2022-03-30T00:00:00" count="36">
-        <d v="2021-09-03T00:00:00"/>
-        <d v="2021-09-07T00:00:00"/>
-        <d v="2021-08-31T00:00:00"/>
-        <d v="2021-09-16T00:00:00"/>
-        <d v="2021-10-04T00:00:00"/>
-        <d v="2021-10-05T00:00:00"/>
-        <d v="2021-10-12T00:00:00"/>
-        <d v="2021-10-13T00:00:00"/>
-        <d v="2021-10-11T00:00:00"/>
-        <d v="2021-10-22T00:00:00"/>
-        <d v="2021-10-27T00:00:00"/>
-        <d v="2021-09-30T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-04-29T00:00:00" maxDate="2022-08-03T00:00:00" count="45">
         <d v="2021-04-29T00:00:00"/>
         <d v="2021-05-27T00:00:00"/>
-        <d v="2021-10-15T00:00:00"/>
-        <d v="2022-02-11T00:00:00"/>
+        <d v="2021-08-31T00:00:00"/>
+        <d v="2021-09-03T00:00:00"/>
+        <d v="2021-09-30T00:00:00"/>
+        <d v="2021-10-06T00:00:00"/>
+        <d v="2021-10-20T00:00:00"/>
         <d v="2021-11-02T00:00:00"/>
-        <d v="2021-09-20T00:00:00"/>
+        <d v="2021-11-26T00:00:00"/>
         <d v="2021-11-08T00:00:00"/>
-        <d v="2021-09-21T00:00:00"/>
-        <d v="2021-10-19T00:00:00"/>
-        <d v="2021-11-30T00:00:00"/>
+        <d v="2021-11-10T00:00:00"/>
+        <d v="2021-11-11T00:00:00"/>
+        <d v="2021-11-16T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-11-23T00:00:00"/>
+        <d v="2022-03-24T00:00:00"/>
+        <d v="2021-11-29T00:00:00"/>
+        <d v="2021-12-02T00:00:00"/>
+        <d v="2021-12-01T00:00:00"/>
+        <d v="2021-12-15T00:00:00"/>
+        <d v="2021-12-06T00:00:00"/>
         <d v="2021-12-07T00:00:00"/>
-        <d v="2021-12-09T00:00:00"/>
-        <d v="2021-12-20T00:00:00"/>
-        <d v="2021-12-01T00:00:00"/>
-        <d v="2022-01-14T00:00:00"/>
-        <d v="2021-12-16T00:00:00"/>
-        <d v="2022-02-08T00:00:00"/>
-        <d v="2022-01-17T00:00:00"/>
-        <d v="2021-10-29T00:00:00"/>
-        <d v="2022-02-15T00:00:00"/>
-        <d v="2021-12-17T00:00:00"/>
-        <d v="2022-01-18T00:00:00"/>
+        <d v="2021-12-10T00:00:00"/>
+        <d v="2022-01-19T00:00:00"/>
+        <d v="2022-01-10T00:00:00"/>
+        <d v="2022-01-26T00:00:00"/>
+        <d v="2022-01-24T00:00:00"/>
+        <d v="2022-01-28T00:00:00"/>
+        <d v="2022-02-25T00:00:00"/>
+        <d v="2022-02-03T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-02-04T00:00:00"/>
+        <d v="2022-02-16T00:00:00"/>
+        <d v="2022-02-18T00:00:00"/>
+        <d v="2022-02-22T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-03-08T00:00:00"/>
+        <d v="2022-03-15T00:00:00"/>
         <d v="2022-03-23T00:00:00"/>
+        <d v="2022-03-16T00:00:00"/>
         <d v="2022-03-29T00:00:00"/>
+        <d v="2022-07-14T00:00:00"/>
+        <d v="2022-08-01T00:00:00"/>
+        <d v="2022-08-02T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Days completed" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6" count="5">
+        <n v="5"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="6"/>
         <n v="0"/>
-        <n v="1"/>
-        <n v="5"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Progress" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="1"/>
         <n v="0"/>
-        <n v="0.5"/>
-        <n v="0.83333333333333337"/>
-        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Budget" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="32765"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="32765"/>
     </cacheField>
     <cacheField name="Actual" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9013.82"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="9013.82"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5890,7 +6021,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5900,498 +6031,510 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1590"/>
-    <n v="0"/>
+    <n v="3215"/>
+    <n v="3215.2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <n v="525"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
+    <n v="5088"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
+    <n v="4664"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1590"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="1431"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2438"/>
+    <n v="7177.26"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2544"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="6"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="5"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4664"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="5088"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
     <x v="0"/>
     <n v="19398"/>
     <n v="7759.2"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="647"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
     <x v="2"/>
     <x v="7"/>
     <x v="2"/>
-    <x v="5"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
+    <n v="1500"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="5"/>
     <x v="8"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3884"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="2"/>
     <x v="9"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12205"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1500"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2438"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="12"/>
     <x v="2"/>
-    <x v="10"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2544"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="14966"/>
+    <n v="5104.92"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="14"/>
     <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="11"/>
+    <x v="15"/>
     <x v="3"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="8"/>
     <x v="0"/>
+    <x v="16"/>
     <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32765"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="16"/>
+    <x v="6"/>
     <x v="15"/>
     <x v="4"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5745.19"/>
-    <n v="1149.03"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="16"/>
-    <x v="5"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="6212"/>
+    <x v="1"/>
+    <n v="10148"/>
     <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="17"/>
     <x v="4"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="11"/>
+    <x v="17"/>
     <x v="2"/>
-    <x v="2"/>
-    <n v="7177.26"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="6226"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="5"/>
+    <x v="4"/>
     <x v="18"/>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3215"/>
-    <n v="3215.2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="19"/>
-    <x v="6"/>
+    <x v="4"/>
+    <x v="18"/>
+    <x v="4"/>
     <x v="17"/>
-    <x v="2"/>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="525"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="6"/>
-    <x v="18"/>
-    <x v="6"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3884"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="19"/>
-    <x v="7"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="10148"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="22"/>
-    <x v="7"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="854.6"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4667"/>
     <n v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="23"/>
-    <x v="5"/>
+    <x v="19"/>
     <x v="4"/>
-    <x v="8"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="14966"/>
-    <n v="5104.92"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="24"/>
-    <x v="5"/>
-    <x v="21"/>
-    <x v="0"/>
+    <x v="19"/>
+    <x v="2"/>
     <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="25"/>
+    <x v="20"/>
     <x v="5"/>
-    <x v="22"/>
-    <x v="0"/>
     <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="6226"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2805"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="20"/>
     <x v="7"/>
-    <x v="26"/>
-    <x v="5"/>
-    <x v="23"/>
+    <x v="19"/>
+    <x v="4"/>
     <x v="1"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4667"/>
+    <n v="0"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="6"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="854.6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="4"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="13343.28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="24"/>
     <x v="7"/>
-    <x v="27"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="9"/>
     <x v="21"/>
     <x v="0"/>
+    <x v="22"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2989"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="25"/>
+    <x v="8"/>
+    <x v="22"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="26"/>
+    <x v="4"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="25"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="31998"/>
+    <n v="4800"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="25"/>
     <x v="0"/>
+    <x v="25"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="19988.28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="9"/>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1535.94"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="4"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="8"/>
+    <x v="31"/>
+    <x v="10"/>
     <x v="28"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="13343.28"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="29"/>
-    <x v="8"/>
-    <x v="26"/>
-    <x v="2"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2989"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="30"/>
-    <x v="4"/>
-    <x v="27"/>
-    <x v="5"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="31998"/>
-    <n v="4800"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="31"/>
     <x v="9"/>
     <x v="28"/>
-    <x v="0"/>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1535.94"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="32"/>
-    <x v="10"/>
-    <x v="29"/>
-    <x v="10"/>
-    <x v="25"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="33"/>
-    <x v="11"/>
-    <x v="27"/>
-    <x v="11"/>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="34"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="2"/>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="19988.28"/>
+    <x v="32"/>
+    <x v="4"/>
+    <x v="29"/>
+    <x v="4"/>
+    <x v="29"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4641"/>
     <n v="0"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="35"/>
-    <x v="5"/>
-    <x v="31"/>
+    <x v="33"/>
+    <x v="11"/>
+    <x v="29"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="4"/>
     <x v="1"/>
-    <x v="28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="36"/>
-    <x v="5"/>
-    <x v="32"/>
-    <x v="12"/>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="647"/>
-    <n v="0"/>
+    <n v="28800"/>
+    <n v="8540"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="37"/>
-    <x v="11"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="29"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="34"/>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="9013.82"/>
+    <n v="9013.82"/>
   </r>
   <r>
-    <x v="7"/>
-    <x v="38"/>
-    <x v="5"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="29"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="13"/>
+    <x v="35"/>
+    <x v="12"/>
+    <x v="31"/>
+    <x v="4"/>
+    <x v="32"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="39"/>
-    <x v="5"/>
-    <x v="34"/>
+    <x v="36"/>
+    <x v="12"/>
+    <x v="32"/>
     <x v="1"/>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4641"/>
+    <x v="33"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="40"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="9013.82"/>
-    <n v="9013.82"/>
+    <x v="37"/>
+    <x v="12"/>
+    <x v="33"/>
+    <x v="1"/>
+    <x v="34"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="13"/>
+    <x v="38"/>
+    <x v="12"/>
+    <x v="34"/>
+    <x v="10"/>
+    <x v="35"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="32765"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="39"/>
+    <x v="2"/>
+    <x v="35"/>
+    <x v="2"/>
+    <x v="35"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5745.19"/>
+    <n v="1149.03"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="40"/>
+    <x v="4"/>
+    <x v="35"/>
+    <x v="4"/>
+    <x v="36"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="6212"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
     <x v="41"/>
-    <x v="12"/>
-    <x v="35"/>
-    <x v="12"/>
-    <x v="31"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="13"/>
+    <x v="36"/>
+    <x v="2"/>
+    <x v="36"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
@@ -6399,71 +6542,107 @@
     <x v="14"/>
     <x v="42"/>
     <x v="13"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="28800"/>
-    <n v="8540"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="43"/>
-    <x v="11"/>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="37"/>
+    <x v="2"/>
+    <x v="37"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="11"/>
+    <x v="14"/>
+    <x v="43"/>
+    <x v="13"/>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="12205"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
     <x v="44"/>
-    <x v="11"/>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="10"/>
+    <x v="39"/>
+    <x v="10"/>
+    <x v="39"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="11"/>
+    <x v="14"/>
     <x v="45"/>
-    <x v="14"/>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="29"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2805"/>
+    <x v="13"/>
+    <x v="40"/>
+    <x v="2"/>
+    <x v="40"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <x v="15"/>
     <x v="46"/>
-    <x v="12"/>
-    <x v="37"/>
+    <x v="10"/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="41"/>
     <x v="4"/>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="7"/>
     <x v="47"/>
-    <x v="12"/>
-    <x v="38"/>
+    <x v="14"/>
+    <x v="42"/>
+    <x v="11"/>
+    <x v="42"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="48"/>
+    <x v="14"/>
+    <x v="43"/>
     <x v="2"/>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="43"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="49"/>
+    <x v="14"/>
+    <x v="43"/>
+    <x v="2"/>
+    <x v="43"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="50"/>
+    <x v="14"/>
+    <x v="44"/>
+    <x v="2"/>
+    <x v="44"/>
+    <x v="4"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
   </r>
@@ -6471,213 +6650,230 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Gantt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:J54" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Gantt" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:J58" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField name="Topic" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="16">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="2"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
-        <item x="5"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="15"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="12"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="48">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+      <items count="51">
         <item x="4"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
         <item x="11"/>
         <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="33"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="35"/>
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
+        <item x="40"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="47"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="20"/>
+        <item x="44"/>
+        <item x="46"/>
         <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="9"/>
         <item x="15"/>
-        <item x="29"/>
-        <item x="31"/>
-        <item x="35"/>
-        <item x="34"/>
+        <item x="26"/>
       </items>
     </pivotField>
     <pivotField name="Acteur" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="15">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="2"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="11"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
         <item x="7"/>
+        <item x="9"/>
         <item x="10"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="12"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="39">
-        <item x="18"/>
+      <items count="45">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="28"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="10"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="11"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="13"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="19"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="34"/>
-        <item x="29"/>
-        <item x="27"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="36"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="13">
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="45">
+        <item x="4"/>
         <item x="3"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="21"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="18"/>
         <item x="2"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="12"/>
         <item x="8"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="36">
-        <item x="11"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="24"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="33"/>
         <item x="34"/>
         <item x="35"/>
-        <item x="22"/>
-        <item x="28"/>
+        <item x="36"/>
+        <item x="15"/>
+        <item x="20"/>
         <item x="12"/>
         <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
+        <item x="6"/>
+        <item x="42"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="44"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="16"/>
         <item x="17"/>
         <item x="19"/>
-        <item x="20"/>
-        <item x="30"/>
-        <item x="25"/>
         <item x="23"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="33"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="21"/>
+        <item x="28"/>
       </items>
     </pivotField>
     <pivotField name="Days comp." axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="5">
+        <item x="4"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="2">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6693,31 +6889,31 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="49">
+  <rowItems count="53">
     <i>
+      <x/>
       <x/>
       <x/>
       <x/>
       <x v="1"/>
       <x v="4"/>
-      <x v="4"/>
-      <x/>
-      <x/>
+      <x v="1"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
       <x/>
+      <x/>
       <x v="1"/>
       <x v="4"/>
-      <x v="4"/>
-      <x/>
-      <x/>
+      <x v="1"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x/>
-      <x v="2"/>
-      <x v="3"/>
+      <x v="14"/>
+      <x v="13"/>
       <x v="5"/>
       <x/>
       <x/>
@@ -6725,8 +6921,8 @@
     <i r="1">
       <x v="3"/>
       <x/>
-      <x v="1"/>
-      <x v="4"/>
+      <x v="15"/>
+      <x v="14"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6734,28 +6930,53 @@
     <i r="1">
       <x v="4"/>
       <x/>
-      <x v="3"/>
-      <x v="5"/>
+      <x v="12"/>
+      <x v="10"/>
       <x v="4"/>
-      <x/>
-      <x/>
+      <x v="1"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+      <x/>
+      <x v="6"/>
+      <x v="2"/>
       <x v="4"/>
-      <x v="5"/>
-      <x v="5"/>
       <x v="1"/>
       <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x/>
+      <x/>
     </i>
     <i>
       <x v="1"/>
       <x v="6"/>
       <x v="1"/>
-      <x v="5"/>
-      <x v="6"/>
-      <x v="5"/>
+      <x v="2"/>
+      <x v="11"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+      <x v="1"/>
+      <x v="16"/>
+      <x v="15"/>
+      <x v="4"/>
       <x/>
       <x/>
     </i>
@@ -6763,8 +6984,8 @@
       <x v="2"/>
       <x v="7"/>
       <x v="2"/>
-      <x v="6"/>
-      <x v="2"/>
+      <x v="34"/>
+      <x v="20"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6772,8 +6993,8 @@
     <i r="1">
       <x v="8"/>
       <x v="2"/>
-      <x v="7"/>
-      <x v="1"/>
+      <x v="35"/>
+      <x v="34"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6781,8 +7002,8 @@
     <i r="1">
       <x v="9"/>
       <x v="2"/>
-      <x v="8"/>
-      <x v="7"/>
+      <x v="36"/>
+      <x v="35"/>
       <x v="1"/>
       <x/>
       <x/>
@@ -6790,8 +7011,8 @@
     <i r="1">
       <x v="10"/>
       <x v="2"/>
-      <x v="9"/>
-      <x v="8"/>
+      <x v="37"/>
+      <x v="36"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6800,8 +7021,8 @@
       <x v="3"/>
       <x v="11"/>
       <x v="3"/>
-      <x v="10"/>
-      <x v="1"/>
+      <x v="17"/>
+      <x v="16"/>
       <x/>
       <x/>
       <x/>
@@ -6809,8 +7030,8 @@
     <i r="1">
       <x v="12"/>
       <x v="3"/>
-      <x v="11"/>
-      <x v="9"/>
+      <x v="18"/>
+      <x v="17"/>
       <x v="5"/>
       <x/>
       <x/>
@@ -6818,8 +7039,8 @@
     <i r="1">
       <x v="13"/>
       <x v="3"/>
-      <x v="12"/>
-      <x v="8"/>
+      <x v="19"/>
+      <x v="18"/>
       <x v="5"/>
       <x/>
       <x/>
@@ -6827,8 +7048,8 @@
     <i r="1">
       <x v="14"/>
       <x v="3"/>
-      <x v="13"/>
-      <x v="10"/>
+      <x v="20"/>
+      <x v="19"/>
       <x v="3"/>
       <x/>
       <x/>
@@ -6836,8 +7057,8 @@
     <i r="1">
       <x v="15"/>
       <x v="4"/>
-      <x v="14"/>
-      <x v="11"/>
+      <x v="21"/>
+      <x v="20"/>
       <x/>
       <x/>
       <x/>
@@ -6845,8 +7066,8 @@
     <i r="1">
       <x v="43"/>
       <x v="5"/>
-      <x v="23"/>
-      <x v="10"/>
+      <x v="21"/>
+      <x v="19"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6855,17 +7076,17 @@
       <x v="4"/>
       <x v="16"/>
       <x v="5"/>
-      <x v="15"/>
+      <x v="3"/>
       <x/>
       <x v="2"/>
-      <x v="2"/>
-      <x v="2"/>
+      <x v="4"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="45"/>
       <x v="13"/>
-      <x v="25"/>
-      <x v="14"/>
+      <x v="38"/>
+      <x v="37"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6874,44 +7095,44 @@
       <x v="5"/>
       <x v="17"/>
       <x v="6"/>
-      <x v="16"/>
-      <x v="19"/>
+      <x v="4"/>
+      <x v="7"/>
       <x v="1"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="18"/>
       <x v="6"/>
-      <x v="17"/>
-      <x v="20"/>
+      <x v="5"/>
+      <x v="8"/>
       <x v="1"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="19"/>
       <x v="6"/>
+      <x v="13"/>
+      <x v="12"/>
+      <x v="9"/>
       <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+      <x v="6"/>
+      <x v="22"/>
       <x v="21"/>
       <x v="10"/>
       <x/>
       <x/>
     </i>
     <i r="1">
-      <x v="20"/>
-      <x v="6"/>
-      <x v="26"/>
-      <x v="22"/>
-      <x v="11"/>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
       <x v="21"/>
       <x v="7"/>
-      <x v="18"/>
-      <x v="12"/>
+      <x v="23"/>
+      <x v="22"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6920,17 +7141,17 @@
       <x v="6"/>
       <x v="22"/>
       <x v="4"/>
+      <x v="24"/>
+      <x v="23"/>
       <x v="5"/>
-      <x v="23"/>
-      <x v="7"/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="23"/>
       <x v="4"/>
-      <x v="19"/>
-      <x v="13"/>
+      <x v="25"/>
+      <x v="24"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6939,8 +7160,8 @@
       <x v="7"/>
       <x v="24"/>
       <x v="4"/>
-      <x v="27"/>
-      <x v="24"/>
+      <x v="26"/>
+      <x v="40"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -6948,45 +7169,54 @@
     <i r="1">
       <x v="25"/>
       <x v="4"/>
-      <x v="28"/>
-      <x v="25"/>
-      <x v="5"/>
+      <x v="40"/>
+      <x v="41"/>
+      <x/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="26"/>
       <x v="4"/>
-      <x v="29"/>
-      <x v="35"/>
-      <x v="12"/>
+      <x v="41"/>
+      <x v="42"/>
+      <x v="11"/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="31"/>
       <x v="4"/>
-      <x v="35"/>
-      <x v="30"/>
-      <x v="6"/>
+      <x v="11"/>
+      <x v="25"/>
+      <x/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="33"/>
       <x v="4"/>
-      <x v="36"/>
-      <x v="31"/>
-      <x v="4"/>
+      <x v="30"/>
+      <x v="29"/>
+      <x v="5"/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="47"/>
       <x v="4"/>
-      <x v="34"/>
-      <x v="29"/>
+      <x v="27"/>
+      <x v="27"/>
       <x v="1"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+      <x v="4"/>
+      <x v="39"/>
+      <x v="38"/>
+      <x v="4"/>
       <x/>
       <x/>
     </i>
@@ -6994,17 +7224,17 @@
       <x v="8"/>
       <x v="27"/>
       <x v="4"/>
-      <x v="30"/>
-      <x v="11"/>
-      <x/>
+      <x v="23"/>
+      <x v="6"/>
+      <x v="5"/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="36"/>
       <x v="14"/>
-      <x v="37"/>
-      <x v="33"/>
+      <x v="44"/>
+      <x v="44"/>
       <x v="6"/>
       <x/>
       <x/>
@@ -7012,8 +7242,8 @@
     <i r="1">
       <x v="44"/>
       <x v="12"/>
-      <x v="24"/>
-      <x v="17"/>
+      <x v="23"/>
+      <x v="39"/>
       <x v="1"/>
       <x/>
       <x/>
@@ -7022,8 +7252,8 @@
       <x v="9"/>
       <x v="28"/>
       <x v="5"/>
-      <x v="33"/>
-      <x v="28"/>
+      <x v="42"/>
+      <x v="27"/>
       <x v="2"/>
       <x/>
       <x/>
@@ -7032,9 +7262,9 @@
       <x v="10"/>
       <x v="29"/>
       <x v="8"/>
-      <x v="32"/>
-      <x v="27"/>
-      <x v="8"/>
+      <x v="43"/>
+      <x v="43"/>
+      <x v="7"/>
       <x/>
       <x/>
     </i>
@@ -7042,17 +7272,17 @@
       <x v="11"/>
       <x v="30"/>
       <x v="9"/>
-      <x v="33"/>
-      <x v="30"/>
-      <x v="9"/>
+      <x v="28"/>
+      <x v="26"/>
+      <x v="8"/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="32"/>
       <x v="9"/>
-      <x v="36"/>
-      <x v="31"/>
+      <x v="29"/>
+      <x v="28"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7060,8 +7290,8 @@
     <i r="1">
       <x v="38"/>
       <x v="9"/>
-      <x v="37"/>
-      <x v="32"/>
+      <x v="29"/>
+      <x v="28"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7069,8 +7299,8 @@
     <i r="1">
       <x v="39"/>
       <x v="9"/>
-      <x v="37"/>
-      <x v="32"/>
+      <x v="33"/>
+      <x v="33"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7078,8 +7308,8 @@
     <i r="1">
       <x v="40"/>
       <x v="11"/>
-      <x v="38"/>
-      <x v="31"/>
+      <x v="10"/>
+      <x v="9"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7089,16 +7319,16 @@
       <x v="34"/>
       <x v="4"/>
       <x v="31"/>
-      <x v="26"/>
-      <x v="5"/>
+      <x v="30"/>
+      <x/>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="35"/>
       <x v="4"/>
-      <x v="18"/>
-      <x v="12"/>
+      <x v="32"/>
+      <x v="31"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7107,8 +7337,8 @@
       <x v="13"/>
       <x v="37"/>
       <x v="10"/>
-      <x v="35"/>
-      <x v="34"/>
+      <x v="31"/>
+      <x v="32"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -7117,8 +7347,8 @@
       <x v="14"/>
       <x v="41"/>
       <x v="14"/>
-      <x v="21"/>
-      <x v="15"/>
+      <x v="8"/>
+      <x v="4"/>
       <x v="3"/>
       <x/>
       <x/>
@@ -7126,8 +7356,8 @@
     <i r="1">
       <x v="42"/>
       <x v="14"/>
-      <x v="22"/>
-      <x v="16"/>
+      <x v="9"/>
+      <x v="5"/>
       <x v="1"/>
       <x/>
       <x/>
@@ -7136,9 +7366,9 @@
       <x v="15"/>
       <x v="46"/>
       <x v="4"/>
-      <x v="20"/>
-      <x v="18"/>
-      <x v="5"/>
+      <x v="10"/>
+      <x v="9"/>
+      <x v="4"/>
       <x/>
       <x/>
     </i>
@@ -7162,7 +7392,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="48">
-    <format dxfId="53">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7172,20 +7402,88 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="70">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="69">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="68">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="67">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
+    <format dxfId="66">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
     <format dxfId="48">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="47">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
@@ -7256,93 +7554,25 @@
       </pivotArea>
     </format>
     <format dxfId="29">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
     <format dxfId="28">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
     <format dxfId="27">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
     <format dxfId="26">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="25">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -7363,48 +7593,48 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Budget_v_Actual" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
       <items count="17">
+        <item x="6"/>
+        <item x="10"/>
         <item x="12"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
         <item x="9"/>
-        <item x="14"/>
-        <item x="15"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="13"/>
         <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="16">
+        <item x="7"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
         <item x="8"/>
-        <item x="3"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="6"/>
         <item x="4"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="7"/>
         <item x="5"/>
-        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7512,48 +7742,48 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="152" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
       <items count="17">
+        <item x="6"/>
+        <item x="10"/>
         <item x="12"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
         <item x="9"/>
-        <item x="14"/>
-        <item x="15"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="13"/>
         <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="16">
+        <item x="7"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
         <item x="8"/>
-        <item x="3"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="6"/>
         <item x="4"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="7"/>
         <item x="5"/>
-        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7605,22 +7835,22 @@
   <data>
     <tabular pivotCacheId="739774749">
       <items count="16">
+        <i x="6" s="1"/>
+        <i x="10" s="1"/>
         <i x="12" s="1"/>
+        <i x="15" s="1"/>
+        <i x="0" s="1"/>
+        <i x="14" s="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
         <i x="9" s="1"/>
-        <i x="14" s="1"/>
-        <i x="15" s="1"/>
+        <i x="11" s="1"/>
+        <i x="2" s="1"/>
+        <i x="4" s="1"/>
+        <i x="13" s="1"/>
         <i x="5" s="1"/>
-        <i x="2" s="1"/>
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="11" s="1"/>
-        <i x="8" s="1"/>
-        <i x="10" s="1"/>
-        <i x="13" s="1"/>
-        <i x="4" s="1"/>
-        <i x="7" s="1"/>
-        <i x="3" s="1"/>
-        <i x="6" s="1"/>
       </items>
     </tabular>
   </data>
@@ -7637,21 +7867,21 @@
   <data>
     <tabular pivotCacheId="739774749">
       <items count="15">
+        <i x="7" s="1"/>
+        <i x="12" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="9" s="1"/>
+        <i x="13" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="11" s="1"/>
         <i x="8" s="1"/>
-        <i x="3" s="1"/>
+        <i x="10" s="1"/>
+        <i x="14" s="1"/>
+        <i x="6" s="1"/>
         <i x="4" s="1"/>
-        <i x="1" s="1"/>
-        <i x="9" s="1"/>
-        <i x="2" s="1"/>
-        <i x="6" s="1"/>
-        <i x="0" s="1"/>
-        <i x="13" s="1"/>
-        <i x="10" s="1"/>
-        <i x="12" s="1"/>
-        <i x="11" s="1"/>
-        <i x="7" s="1"/>
         <i x="5" s="1"/>
-        <i x="14" s="1"/>
       </items>
     </tabular>
   </data>
@@ -7666,23 +7896,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
-  <autoFilter ref="A1:J49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J53" totalsRowShown="0">
+  <autoFilter ref="A1:J53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J53">
+    <sortCondition ref="D1:D53"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="23"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="End Date" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="End Date" dataDxfId="19">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Days completed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Progress" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Days completed" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Progress" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Budget" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Budget" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7990,26 +8223,26 @@
   </sheetPr>
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="50" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="30" width="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="50" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8017,12 +8250,12 @@
         <v>32</v>
       </c>
       <c r="B1" s="26"/>
-      <c r="C1" s="46" t="str">
+      <c r="C1" s="47" t="str">
         <f>TEXT(MIN(D6:D51),"d-mmm-yy")&amp;" to "&amp;TEXT(MAX(E6:E51),"d-mmm-yy")</f>
-        <v>d-avr-yy to d-mars-yy</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+        <v>d-avr-yy to d-août-yy</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -8070,88 +8303,88 @@
       <c r="AX1" s="26"/>
     </row>
     <row r="2" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
     </row>
     <row r="3" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
     </row>
     <row r="5" spans="1:53" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -8186,163 +8419,163 @@
       </c>
       <c r="K5" s="39">
         <f>MIN(D6:D50)+Workings!P2</f>
-        <v>44451</v>
+        <v>44514</v>
       </c>
       <c r="L5" s="39">
         <f>+K5+1</f>
-        <v>44452</v>
+        <v>44515</v>
       </c>
       <c r="M5" s="39">
         <f t="shared" ref="M5:AJ5" si="0">+L5+1</f>
-        <v>44453</v>
+        <v>44516</v>
       </c>
       <c r="N5" s="39">
         <f t="shared" si="0"/>
-        <v>44454</v>
+        <v>44517</v>
       </c>
       <c r="O5" s="39">
         <f t="shared" si="0"/>
-        <v>44455</v>
+        <v>44518</v>
       </c>
       <c r="P5" s="39">
         <f t="shared" si="0"/>
-        <v>44456</v>
+        <v>44519</v>
       </c>
       <c r="Q5" s="39">
         <f t="shared" si="0"/>
-        <v>44457</v>
+        <v>44520</v>
       </c>
       <c r="R5" s="39">
         <f t="shared" si="0"/>
-        <v>44458</v>
+        <v>44521</v>
       </c>
       <c r="S5" s="39">
         <f t="shared" si="0"/>
-        <v>44459</v>
+        <v>44522</v>
       </c>
       <c r="T5" s="39">
         <f t="shared" si="0"/>
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="U5" s="39">
         <f t="shared" si="0"/>
-        <v>44461</v>
+        <v>44524</v>
       </c>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>44462</v>
+        <v>44525</v>
       </c>
       <c r="W5" s="39">
         <f t="shared" si="0"/>
-        <v>44463</v>
+        <v>44526</v>
       </c>
       <c r="X5" s="39">
         <f t="shared" si="0"/>
-        <v>44464</v>
+        <v>44527</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="0"/>
-        <v>44465</v>
+        <v>44528</v>
       </c>
       <c r="Z5" s="39">
         <f t="shared" si="0"/>
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" si="0"/>
-        <v>44467</v>
+        <v>44530</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="0"/>
-        <v>44468</v>
+        <v>44531</v>
       </c>
       <c r="AC5" s="39">
         <f t="shared" si="0"/>
-        <v>44469</v>
+        <v>44532</v>
       </c>
       <c r="AD5" s="39">
         <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>44533</v>
       </c>
       <c r="AE5" s="39">
         <f t="shared" si="0"/>
-        <v>44471</v>
+        <v>44534</v>
       </c>
       <c r="AF5" s="39">
         <f t="shared" si="0"/>
-        <v>44472</v>
+        <v>44535</v>
       </c>
       <c r="AG5" s="39">
         <f t="shared" si="0"/>
-        <v>44473</v>
+        <v>44536</v>
       </c>
       <c r="AH5" s="39">
         <f t="shared" si="0"/>
-        <v>44474</v>
+        <v>44537</v>
       </c>
       <c r="AI5" s="39">
         <f t="shared" si="0"/>
-        <v>44475</v>
+        <v>44538</v>
       </c>
       <c r="AJ5" s="39">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44539</v>
       </c>
       <c r="AK5" s="39">
         <f t="shared" ref="AK5:AX5" si="1">+AJ5+1</f>
-        <v>44477</v>
+        <v>44540</v>
       </c>
       <c r="AL5" s="39">
         <f t="shared" si="1"/>
-        <v>44478</v>
+        <v>44541</v>
       </c>
       <c r="AM5" s="39">
         <f t="shared" si="1"/>
-        <v>44479</v>
+        <v>44542</v>
       </c>
       <c r="AN5" s="39">
         <f t="shared" si="1"/>
-        <v>44480</v>
+        <v>44543</v>
       </c>
       <c r="AO5" s="39">
         <f t="shared" si="1"/>
-        <v>44481</v>
+        <v>44544</v>
       </c>
       <c r="AP5" s="39">
         <f t="shared" si="1"/>
-        <v>44482</v>
+        <v>44545</v>
       </c>
       <c r="AQ5" s="39">
         <f t="shared" si="1"/>
-        <v>44483</v>
+        <v>44546</v>
       </c>
       <c r="AR5" s="39">
         <f t="shared" si="1"/>
-        <v>44484</v>
+        <v>44547</v>
       </c>
       <c r="AS5" s="39">
         <f t="shared" si="1"/>
-        <v>44485</v>
+        <v>44548</v>
       </c>
       <c r="AT5" s="39">
         <f t="shared" si="1"/>
-        <v>44486</v>
+        <v>44549</v>
       </c>
       <c r="AU5" s="39">
         <f t="shared" si="1"/>
-        <v>44487</v>
+        <v>44550</v>
       </c>
       <c r="AV5" s="39">
         <f t="shared" si="1"/>
-        <v>44488</v>
+        <v>44551</v>
       </c>
       <c r="AW5" s="39">
         <f t="shared" si="1"/>
-        <v>44489</v>
+        <v>44552</v>
       </c>
       <c r="AX5" s="39">
         <f t="shared" si="1"/>
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
@@ -8364,14 +8597,14 @@
       <c r="E6" s="1">
         <v>44442</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="45">
         <v>1</v>
       </c>
       <c r="G6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
         <v>1590</v>
@@ -8394,14 +8627,14 @@
       <c r="E7" s="1">
         <v>44442</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="45">
         <v>1</v>
       </c>
       <c r="G7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <v>1431</v>
@@ -8419,12 +8652,12 @@
         <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>44445</v>
+        <v>44509</v>
       </c>
       <c r="E8" s="1">
-        <v>44446</v>
-      </c>
-      <c r="F8" s="44">
+        <v>44510</v>
+      </c>
+      <c r="F8" s="45">
         <v>2</v>
       </c>
       <c r="G8" s="12">
@@ -8449,12 +8682,12 @@
         <v>36</v>
       </c>
       <c r="D9" s="1">
-        <v>44442</v>
+        <v>44511</v>
       </c>
       <c r="E9" s="1">
-        <v>44442</v>
-      </c>
-      <c r="F9" s="44">
+        <v>44511</v>
+      </c>
+      <c r="F9" s="45">
         <v>1</v>
       </c>
       <c r="G9" s="12">
@@ -8484,14 +8717,14 @@
       <c r="E10" s="1">
         <v>44439</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="45">
         <v>1</v>
       </c>
       <c r="G10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>4664</v>
@@ -8514,14 +8747,14 @@
       <c r="E11" s="1">
         <v>44439</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="45">
         <v>2</v>
       </c>
       <c r="G11" s="12">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
         <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.5</v>
       </c>
       <c r="I11" s="3">
         <v>5088</v>
@@ -8531,115 +8764,109 @@
       </c>
     </row>
     <row r="12" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44502</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44502</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44508</v>
+      </c>
+      <c r="F13" s="45">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1">
-        <v>44454</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44455</v>
-      </c>
-      <c r="F12" s="44">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="D14" s="1">
+        <v>44475</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44475</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <v>19398</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J14" s="3">
         <v>7759.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44473</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44473</v>
-      </c>
-      <c r="F13" s="44">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44474</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44474</v>
-      </c>
-      <c r="F14" s="44">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
-        <v>44475</v>
+        <v>44523</v>
       </c>
       <c r="E15" s="1">
-        <v>44481</v>
-      </c>
-      <c r="F15" s="44">
-        <v>5</v>
+        <v>44523</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1</v>
       </c>
       <c r="G15" s="12">
         <v>0</v>
@@ -8648,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>12205</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -8665,20 +8892,22 @@
       <c r="V15"/>
     </row>
     <row r="16" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="1">
-        <v>44482</v>
+        <v>44627</v>
       </c>
       <c r="E16" s="1">
-        <v>44482</v>
-      </c>
-      <c r="F16" s="44">
+        <v>44627</v>
+      </c>
+      <c r="F16" s="45">
         <v>1</v>
       </c>
       <c r="G16" s="12">
@@ -8705,23 +8934,21 @@
       <c r="V16"/>
     </row>
     <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
+      <c r="A17"/>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>44470</v>
+        <v>44628</v>
       </c>
       <c r="E17" s="1">
-        <v>44474</v>
-      </c>
-      <c r="F17" s="44">
-        <v>3</v>
+        <v>44628</v>
+      </c>
+      <c r="F17" s="45">
+        <v>1</v>
       </c>
       <c r="G17" s="12">
         <v>0</v>
@@ -8749,19 +8976,19 @@
     <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
-        <v>44477</v>
+        <v>44629</v>
       </c>
       <c r="E18" s="1">
-        <v>44480</v>
-      </c>
-      <c r="F18" s="44">
-        <v>2</v>
+        <v>44635</v>
+      </c>
+      <c r="F18" s="45">
+        <v>5</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -8770,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>12205</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -8789,19 +9016,19 @@
     <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1">
-        <v>44481</v>
+        <v>44636</v>
       </c>
       <c r="E19" s="1">
-        <v>44482</v>
-      </c>
-      <c r="F19" s="44">
-        <v>2</v>
+        <v>44636</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1</v>
       </c>
       <c r="G19" s="12">
         <v>0</v>
@@ -8827,21 +9054,23 @@
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="1">
-        <v>44483</v>
+        <v>44606</v>
       </c>
       <c r="E20" s="1">
-        <v>44491</v>
-      </c>
-      <c r="F20" s="44">
-        <v>7</v>
+        <v>44608</v>
+      </c>
+      <c r="F20" s="45">
+        <v>3</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
@@ -8850,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>32765</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -8868,19 +9097,19 @@
     <row r="21" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
-        <v>44492</v>
+        <v>44609</v>
       </c>
       <c r="E21" s="1">
-        <v>44496</v>
-      </c>
-      <c r="F21" s="44">
-        <v>3</v>
+        <v>44610</v>
+      </c>
+      <c r="F21" s="45">
+        <v>2</v>
       </c>
       <c r="G21" s="12">
         <v>0</v>
@@ -8889,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -8903,19 +9132,19 @@
     <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1">
-        <v>44491</v>
+        <v>44613</v>
       </c>
       <c r="E22" s="1">
-        <v>44491</v>
-      </c>
-      <c r="F22" s="44">
-        <v>1</v>
+        <v>44614</v>
+      </c>
+      <c r="F22" s="45">
+        <v>2</v>
       </c>
       <c r="G22" s="12">
         <v>0</v>
@@ -8924,10 +9153,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>5745.19</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>1149.03</v>
+        <v>0</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -8936,32 +9165,30 @@
       <c r="V22"/>
     </row>
     <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
+      <c r="A23"/>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
-        <v>44462</v>
+        <v>44615</v>
       </c>
       <c r="E23" s="1">
-        <v>44469</v>
-      </c>
-      <c r="F23" s="44">
-        <v>6</v>
+        <v>44623</v>
+      </c>
+      <c r="F23" s="45">
+        <v>7</v>
       </c>
       <c r="G23" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>7177.26</v>
+        <v>32765</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -8970,90 +9197,90 @@
     <row r="24" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
-        <v>44550</v>
+        <v>44623</v>
       </c>
       <c r="E24" s="1">
-        <v>44550</v>
-      </c>
-      <c r="F24" s="44">
+        <v>44627</v>
+      </c>
+      <c r="F24" s="45">
+        <v>3</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6212</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44623</v>
+      </c>
+      <c r="F25" s="45">
         <v>1</v>
       </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1535.94</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44309</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44315</v>
-      </c>
-      <c r="F25" s="44">
-        <v>5</v>
-      </c>
       <c r="G25" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>3215</v>
+        <v>5745.19</v>
       </c>
       <c r="J25" s="3">
-        <v>3215.2</v>
+        <v>1149.03</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>44337</v>
+        <v>44462</v>
       </c>
       <c r="E26" s="1">
-        <v>44343</v>
-      </c>
-      <c r="F26" s="44">
-        <v>5</v>
+        <v>44469</v>
+      </c>
+      <c r="F26" s="45">
+        <v>6</v>
       </c>
       <c r="G26" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="11">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>525</v>
+        <v>7177.26</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -9062,19 +9289,19 @@
     <row r="27" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1">
-        <v>44466</v>
+        <v>44583</v>
       </c>
       <c r="E27" s="1">
-        <v>44484</v>
-      </c>
-      <c r="F27" s="44">
-        <v>15</v>
+        <v>44585</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1</v>
       </c>
       <c r="G27" s="12">
         <v>0</v>
@@ -9083,90 +9310,90 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>3884</v>
+        <v>1535.94</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="1">
-        <v>44485</v>
+        <v>44309</v>
       </c>
       <c r="E28" s="1">
-        <v>44603</v>
-      </c>
-      <c r="F28" s="44">
-        <v>85</v>
+        <v>44315</v>
+      </c>
+      <c r="F28" s="45">
+        <v>5</v>
       </c>
       <c r="G28" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>10148</v>
+        <v>3215</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>3215.2</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>44502</v>
+        <v>44337</v>
       </c>
       <c r="E29" s="1">
-        <v>44502</v>
-      </c>
-      <c r="F29" s="44">
+        <v>44343</v>
+      </c>
+      <c r="F29" s="45">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>5</v>
+      </c>
+      <c r="H29" s="11">
         <v>1</v>
       </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>854.6</v>
+        <v>525</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
+      <c r="A30"/>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1">
-        <v>44454</v>
+        <v>44506</v>
       </c>
       <c r="E30" s="1">
-        <v>44459</v>
-      </c>
-      <c r="F30" s="44">
-        <v>4</v>
+        <v>44526</v>
+      </c>
+      <c r="F30" s="45">
+        <v>15</v>
       </c>
       <c r="G30" s="12">
         <v>0</v>
@@ -9175,61 +9402,59 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>14966</v>
+        <v>3884</v>
       </c>
       <c r="J30" s="3">
-        <v>5104.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1">
-        <v>44508</v>
+        <v>44526</v>
       </c>
       <c r="E31" s="1">
-        <v>44508</v>
-      </c>
-      <c r="F31" s="44">
+        <v>44644</v>
+      </c>
+      <c r="F31" s="45">
+        <v>85</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>10148</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44536</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44536</v>
+      </c>
+      <c r="F32" s="45">
         <v>1</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="1">
-        <v>44460</v>
-      </c>
-      <c r="E32" s="1">
-        <v>44460</v>
-      </c>
-      <c r="F32" s="44">
-        <v>1</v>
-      </c>
       <c r="G32" s="12">
         <v>0</v>
       </c>
@@ -9237,27 +9462,29 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>6226</v>
+        <v>854.6</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1">
-        <v>44487</v>
+        <v>44515</v>
       </c>
       <c r="E33" s="1">
-        <v>44488</v>
-      </c>
-      <c r="F33" s="44">
+        <v>44516</v>
+      </c>
+      <c r="F33" s="45">
         <v>2</v>
       </c>
       <c r="G33" s="12">
@@ -9267,28 +9494,28 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>4667</v>
+        <v>14966</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>5104.92</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="1">
-        <v>44489</v>
+        <v>44517</v>
       </c>
       <c r="E34" s="1">
-        <v>44530</v>
-      </c>
-      <c r="F34" s="44">
-        <v>30</v>
+        <v>44517</v>
+      </c>
+      <c r="F34" s="45">
+        <v>1</v>
       </c>
       <c r="G34" s="12">
         <v>0</v>
@@ -9304,21 +9531,23 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="1">
-        <v>44547</v>
+        <v>44529</v>
       </c>
       <c r="E35" s="1">
-        <v>44575</v>
-      </c>
-      <c r="F35" s="44">
-        <v>21</v>
+        <v>44529</v>
+      </c>
+      <c r="F35" s="45">
+        <v>1</v>
       </c>
       <c r="G35" s="12">
         <v>0</v>
@@ -9327,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>647</v>
+        <v>6226</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -9336,19 +9565,19 @@
     <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="1">
-        <v>44578</v>
+        <v>44530</v>
       </c>
       <c r="E36" s="1">
-        <v>44578</v>
-      </c>
-      <c r="F36" s="44">
-        <v>1</v>
+        <v>44532</v>
+      </c>
+      <c r="F36" s="45">
+        <v>3</v>
       </c>
       <c r="G36" s="12">
         <v>0</v>
@@ -9357,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>4667</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -9366,19 +9595,19 @@
     <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="1">
-        <v>44540</v>
+        <v>44532</v>
       </c>
       <c r="E37" s="1">
-        <v>44546</v>
-      </c>
-      <c r="F37" s="44">
-        <v>5</v>
+        <v>44545</v>
+      </c>
+      <c r="F37" s="45">
+        <v>10</v>
       </c>
       <c r="G37" s="12">
         <v>0</v>
@@ -9387,29 +9616,27 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>19988.28</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
+      <c r="A38"/>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="1">
-        <v>44493</v>
+        <v>44487</v>
       </c>
       <c r="E38" s="1">
-        <v>44496</v>
-      </c>
-      <c r="F38" s="44">
+        <v>44489</v>
+      </c>
+      <c r="F38" s="45">
         <v>3</v>
       </c>
       <c r="G38" s="12">
@@ -9419,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>13343.28</v>
+        <v>647</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -9428,19 +9655,19 @@
     <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1">
-        <v>44579</v>
+        <v>44588</v>
       </c>
       <c r="E39" s="1">
-        <v>44607</v>
-      </c>
-      <c r="F39" s="44">
-        <v>21</v>
+        <v>44589</v>
+      </c>
+      <c r="F39" s="45">
+        <v>2</v>
       </c>
       <c r="G39" s="12">
         <v>0</v>
@@ -9458,18 +9685,18 @@
     <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1">
-        <v>44531</v>
+        <v>44581</v>
       </c>
       <c r="E40" s="1">
-        <v>44537</v>
-      </c>
-      <c r="F40" s="44">
+        <v>44587</v>
+      </c>
+      <c r="F40" s="45">
         <v>5</v>
       </c>
       <c r="G40" s="12">
@@ -9479,30 +9706,28 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>2989</v>
+        <v>19988.28</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
+      <c r="A41"/>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1">
-        <v>44532</v>
+        <v>44571</v>
       </c>
       <c r="E41" s="1">
-        <v>44539</v>
-      </c>
-      <c r="F41" s="44">
-        <v>6</v>
+        <v>44571</v>
+      </c>
+      <c r="F41" s="45">
+        <v>1</v>
       </c>
       <c r="G41" s="12">
         <v>0</v>
@@ -9510,31 +9735,27 @@
       <c r="H41" s="11">
         <v>0</v>
       </c>
-      <c r="I41" s="3">
-        <v>31998</v>
-      </c>
-      <c r="J41" s="3">
-        <v>4800</v>
-      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1">
-        <v>44494</v>
+        <v>44536</v>
       </c>
       <c r="E42" s="1">
-        <v>44531</v>
-      </c>
-      <c r="F42" s="44">
-        <v>28</v>
+        <v>44537</v>
+      </c>
+      <c r="F42" s="45">
+        <v>2</v>
       </c>
       <c r="G42" s="12">
         <v>0</v>
@@ -9543,30 +9764,28 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>13343.28</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
+      <c r="A43"/>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1">
-        <v>44532</v>
+        <v>44589</v>
       </c>
       <c r="E43" s="1">
-        <v>44575</v>
-      </c>
-      <c r="F43" s="44">
-        <v>32</v>
+        <v>44617</v>
+      </c>
+      <c r="F43" s="45">
+        <v>21</v>
       </c>
       <c r="G43" s="12">
         <v>0</v>
@@ -9584,142 +9803,146 @@
     <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44536</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44540</v>
+      </c>
+      <c r="F44" s="45">
+        <v>5</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2989</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44580</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44587</v>
+      </c>
+      <c r="F45" s="45">
+        <v>6</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>31998</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44543</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44580</v>
+      </c>
+      <c r="F46" s="45">
+        <v>28</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44713</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44756</v>
+      </c>
+      <c r="F47" s="45">
+        <v>32</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="1">
-        <v>44578</v>
-      </c>
-      <c r="E44" s="1">
-        <v>44578</v>
-      </c>
-      <c r="F44" s="44">
+      <c r="D48" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44774</v>
+      </c>
+      <c r="F48" s="45">
         <v>1</v>
       </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44579</v>
-      </c>
-      <c r="E45" s="1">
-        <v>44579</v>
-      </c>
-      <c r="F45" s="44">
-        <v>1</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="1">
-        <v>44579</v>
-      </c>
-      <c r="E46" s="1">
-        <v>44579</v>
-      </c>
-      <c r="F46" s="44">
-        <v>1</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="1">
-        <v>44576</v>
-      </c>
-      <c r="E47" s="1">
-        <v>44578</v>
-      </c>
-      <c r="F47" s="44">
-        <v>1</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2805</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="1">
-        <v>44497</v>
-      </c>
-      <c r="E48" s="1">
-        <v>44498</v>
-      </c>
-      <c r="F48" s="44">
-        <v>2</v>
-      </c>
       <c r="G48" s="12">
         <v>0</v>
       </c>
@@ -9727,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>4641</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -9736,145 +9959,141 @@
     <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44774</v>
+      </c>
+      <c r="F49" s="45">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44775</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44775</v>
+      </c>
+      <c r="F50" s="45">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F51" s="45">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2805</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44593</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44595</v>
+      </c>
+      <c r="F52" s="45">
+        <v>3</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4641</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" t="s">
         <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="1">
-        <v>44502</v>
-      </c>
-      <c r="E49" s="1">
-        <v>44502</v>
-      </c>
-      <c r="F49" s="44">
-        <v>1</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>9013.82</v>
-      </c>
-      <c r="J49" s="3">
-        <v>9013.82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="1">
-        <v>44547</v>
-      </c>
-      <c r="E50" s="1">
-        <v>44547</v>
-      </c>
-      <c r="F50" s="44">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>28800</v>
-      </c>
-      <c r="J50" s="3">
-        <v>8540</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="1">
-        <v>44635</v>
-      </c>
-      <c r="E51" s="1">
-        <v>44643</v>
-      </c>
-      <c r="F51" s="44">
-        <v>7</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="1">
-        <v>44643</v>
-      </c>
-      <c r="E52" s="1">
-        <v>44649</v>
-      </c>
-      <c r="F52" s="44">
-        <v>5</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="1">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="E53" s="1">
-        <v>44600</v>
-      </c>
-      <c r="F53" s="44">
-        <v>2</v>
+        <v>44596</v>
+      </c>
+      <c r="F53" s="45">
+        <v>1</v>
       </c>
       <c r="G53" s="12">
         <v>0</v>
@@ -9883,68 +10102,155 @@
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>9013.82</v>
       </c>
       <c r="J53" s="3">
-        <v>0</v>
+        <v>9013.82</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44593</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44593</v>
+      </c>
+      <c r="F54" s="45">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="3">
-        <v>261504.37</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D55" s="1">
+        <v>44635</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44643</v>
+      </c>
+      <c r="F55" s="45">
+        <v>7</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44643</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44649</v>
+      </c>
+      <c r="F56" s="45">
+        <v>5</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F57" s="45">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="3">
+        <v>264504.37</v>
+      </c>
+      <c r="J58" s="3">
         <v>39582.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="15"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="15"/>
@@ -10196,7 +10502,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AJ5">
-    <cfRule type="expression" dxfId="71" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>K$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10215,63 +10521,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AJ51">
-    <cfRule type="expression" dxfId="70" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND(K$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,K$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,K$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AQ5">
-    <cfRule type="expression" dxfId="65" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AK$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AQ51">
-    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>AND(WEEKDAY(AK$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(AK$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AK$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>AND(AK$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AK$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>AND(AK$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AK$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AX5">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AR$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AX51">
-    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(AR$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(AR$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AR$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AR$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AR$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10288,16 +10594,16 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>647700</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>333375</xdr:rowOff>
+                    <xdr:rowOff>323850</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10393,7 +10699,7 @@
       </c>
       <c r="F2" s="16">
         <f>COUNTIF(Dashboard!H6:H51,"="&amp;0)</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F2)</f>
@@ -10412,7 +10718,7 @@
         <v>20</v>
       </c>
       <c r="P2">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10423,14 +10729,14 @@
         <v>39582.17</v>
       </c>
       <c r="C3" s="25">
-        <v>261504.37</v>
+        <v>264504.37</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="7">
         <f>COUNTIFS(Dashboard!H6:H51,"&lt;&gt;"&amp;0,Dashboard!H6:H51,"&lt;"&amp;1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F3)</f>
@@ -10440,7 +10746,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" t="s">
@@ -10448,7 +10754,7 @@
       </c>
       <c r="M3" s="34">
         <f>J3/$J$4</f>
-        <v>4.7619047619047616E-2</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="N3" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(M3)</f>
@@ -10461,18 +10767,18 @@
       </c>
       <c r="B4" s="2">
         <f>GETPIVOTDATA("Actual ",$B$2)/GETPIVOTDATA("Budget ",$B$2)</f>
-        <v>0.15136332138541317</v>
+        <v>0.14964656349534036</v>
       </c>
       <c r="C4" s="2">
         <f>1-B4</f>
-        <v>0.8486366786145868</v>
+        <v>0.85035343650465967</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="16">
         <f>COUNTIF(Dashboard!H6:H51,"="&amp;1)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F4)</f>
@@ -10482,7 +10788,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="6">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" t="s">
@@ -10490,7 +10796,7 @@
       </c>
       <c r="M4" s="34">
         <f>1-M3</f>
-        <v>0.95238095238095233</v>
+        <v>0.92333333333333334</v>
       </c>
       <c r="N4" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(M4)</f>
@@ -10508,7 +10814,7 @@
       </c>
       <c r="F5" s="31">
         <f>F3+F2</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F5)</f>
@@ -10524,7 +10830,7 @@
       </c>
       <c r="F6" s="7">
         <f>COUNTA(Dashboard!B6:B50)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F6)</f>
@@ -10546,25 +10852,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L126"/>
+  <sheetPr codeName="Sheet4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.7109375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10601,107 +10911,106 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1">
-        <v>44442</v>
+        <v>44309</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44442</v>
+        <v>44315</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="41">
-        <v>1590</v>
+        <v>3215</v>
       </c>
       <c r="J2" s="41">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2"/>
+        <v>3215.2</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1">
-        <v>44442</v>
+        <v>44337</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44442</v>
+        <v>44343</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="41">
-        <v>1431</v>
+        <v>525</v>
       </c>
       <c r="J3" s="41">
         <v>0</v>
       </c>
-      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1">
-        <v>44447</v>
+        <v>44438</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44449</v>
+        <v>44439</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="41">
-        <v>2438</v>
+        <v>5088</v>
       </c>
       <c r="J4" s="41">
         <v>0</v>
       </c>
+      <c r="K4"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -10709,190 +11018,196 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>44448</v>
+        <v>44439</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44448</v>
+        <v>44439</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="41">
-        <v>2544</v>
+        <v>4664</v>
       </c>
       <c r="J5" s="41">
         <v>0</v>
       </c>
+      <c r="K5"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="41">
-        <v>4664</v>
+        <v>1590</v>
       </c>
       <c r="J6" s="41">
         <v>0</v>
       </c>
+      <c r="K6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I7" s="41">
-        <v>5088</v>
+        <v>1431</v>
       </c>
       <c r="J7" s="41">
         <v>0</v>
       </c>
+      <c r="K7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1">
-        <v>44454</v>
+        <v>44462</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44455</v>
+        <v>44469</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="41">
-        <v>19398</v>
+        <v>7177.26</v>
       </c>
       <c r="J8" s="41">
-        <v>7759.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="41">
-        <v>0</v>
+        <v>19398</v>
       </c>
       <c r="J9" s="41">
-        <v>0</v>
-      </c>
+        <v>7759.2</v>
+      </c>
+      <c r="K9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
-        <v>44474</v>
+        <v>44487</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44474</v>
+        <v>44489</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -10902,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="41">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="J10" s="41">
         <v>0</v>
@@ -10910,57 +11225,58 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44475</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="40">
+        <v>44502</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44481</v>
+        <v>44502</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="41">
-        <v>12205</v>
+        <v>1500</v>
       </c>
       <c r="J11" s="41">
         <v>0</v>
       </c>
+      <c r="K11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>44482</v>
+        <v>44506</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44482</v>
+        <v>44526</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -10970,31 +11286,33 @@
         <v>0</v>
       </c>
       <c r="I12" s="41">
-        <v>0</v>
+        <v>3884</v>
       </c>
       <c r="J12" s="41">
         <v>0</v>
       </c>
+      <c r="K12"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44470</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="40">
+        <v>44508</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44474</v>
+        <v>44508</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -11004,31 +11322,32 @@
         <v>0</v>
       </c>
       <c r="I13" s="41">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J13" s="41">
         <v>0</v>
       </c>
+      <c r="K13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
-        <v>44477</v>
+        <v>44509</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44480</v>
+        <v>44510</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -11038,31 +11357,32 @@
         <v>0</v>
       </c>
       <c r="I14" s="41">
-        <v>0</v>
+        <v>2438</v>
       </c>
       <c r="J14" s="41">
         <v>0</v>
       </c>
+      <c r="K14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>44481</v>
+        <v>44511</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44482</v>
+        <v>44511</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -11072,31 +11392,32 @@
         <v>0</v>
       </c>
       <c r="I15" s="41">
-        <v>0</v>
+        <v>2544</v>
       </c>
       <c r="J15" s="41">
         <v>0</v>
       </c>
+      <c r="K15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44491</v>
+        <v>44516</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -11106,31 +11427,32 @@
         <v>0</v>
       </c>
       <c r="I16" s="41">
-        <v>32765</v>
+        <v>14966</v>
       </c>
       <c r="J16" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5104.92</v>
+      </c>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="40">
-        <v>44491</v>
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44517</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44491</v>
+        <v>44517</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -11140,31 +11462,32 @@
         <v>0</v>
       </c>
       <c r="I17" s="41">
-        <v>5745.19</v>
+        <v>0</v>
       </c>
       <c r="J17" s="41">
-        <v>1149.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
-        <v>44492</v>
+        <v>44523</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44496</v>
+        <v>44523</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -11174,133 +11497,137 @@
         <v>0</v>
       </c>
       <c r="I18" s="41">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="J18" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
-        <v>44462</v>
+        <v>44526</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44469</v>
+        <v>44644</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="I19" s="41">
-        <v>7177.26</v>
+        <v>10148</v>
       </c>
       <c r="J19" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
-        <v>44309</v>
+        <v>44529</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44315</v>
+        <v>44529</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="41">
-        <v>3215</v>
+        <v>6226</v>
       </c>
       <c r="J20" s="41">
-        <v>3215.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1">
-        <v>44337</v>
+        <v>44530</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44343</v>
+        <v>44532</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="41">
+        <v>4667</v>
+      </c>
+      <c r="J21" s="41">
+        <v>0</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E22">
         <v>1</v>
-      </c>
-      <c r="I21" s="41">
-        <v>525</v>
-      </c>
-      <c r="J21" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44466</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
       </c>
       <c r="F22" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44484</v>
+        <v>44531</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -11309,32 +11636,33 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="41">
-        <v>3884</v>
+      <c r="I22" s="42">
+        <v>0</v>
       </c>
       <c r="J22" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1">
-        <v>44485</v>
+        <v>44531</v>
       </c>
       <c r="E23">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44603</v>
+        <v>44531</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -11344,31 +11672,32 @@
         <v>0</v>
       </c>
       <c r="I23" s="41">
-        <v>10148</v>
+        <v>2805</v>
       </c>
       <c r="J23" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
-        <v>44502</v>
+        <v>44532</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44502</v>
+        <v>44545</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -11378,31 +11707,32 @@
         <v>0</v>
       </c>
       <c r="I24" s="41">
-        <v>854.6</v>
+        <v>0</v>
       </c>
       <c r="J24" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1">
-        <v>44454</v>
+        <v>44536</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44459</v>
+        <v>44536</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -11412,31 +11742,31 @@
         <v>0</v>
       </c>
       <c r="I25" s="41">
-        <v>14966</v>
+        <v>854.6</v>
       </c>
       <c r="J25" s="41">
-        <v>5104.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="1">
-        <v>44508</v>
+        <v>44536</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44508</v>
+        <v>44537</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -11446,31 +11776,31 @@
         <v>0</v>
       </c>
       <c r="I26" s="41">
-        <v>0</v>
+        <v>13343.28</v>
       </c>
       <c r="J26" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>44460</v>
+        <v>44536</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44460</v>
+        <v>44540</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -11480,99 +11810,94 @@
         <v>0</v>
       </c>
       <c r="I27" s="41">
-        <v>6226</v>
+        <v>2989</v>
       </c>
       <c r="J27" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>44487</v>
+        <v>44543</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44488</v>
+        <v>44580</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="41">
-        <v>4667</v>
+        <v>0</v>
+      </c>
+      <c r="I28" s="42">
+        <v>0</v>
       </c>
       <c r="J28" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1">
-        <v>44489</v>
+      <c r="D29" s="40">
+        <v>44571</v>
       </c>
       <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="40">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44530</v>
+        <v>44571</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="41">
-        <v>0</v>
-      </c>
-      <c r="J29" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1">
-        <v>44493</v>
+        <v>44580</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44496</v>
+        <v>44587</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -11582,65 +11907,65 @@
         <v>0</v>
       </c>
       <c r="I30" s="41">
-        <v>13343.28</v>
+        <v>31998</v>
       </c>
       <c r="J30" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="1">
-        <v>44531</v>
+        <v>58</v>
+      </c>
+      <c r="D31" s="40">
+        <v>44581</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="F31" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44537</v>
+        <v>44587</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I31" s="41">
-        <v>2989</v>
+        <v>19988.28</v>
       </c>
       <c r="J31" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1">
-        <v>44532</v>
+        <v>111</v>
+      </c>
+      <c r="D32" s="40">
+        <v>44583</v>
       </c>
       <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="40">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44539</v>
+        <v>44585</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -11650,31 +11975,34 @@
         <v>0</v>
       </c>
       <c r="I32" s="41">
-        <v>31998</v>
+        <v>1535.94</v>
       </c>
       <c r="J32" s="41">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="40">
-        <v>44550</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44588</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="40">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44550</v>
+        <v>44589</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -11684,36 +12012,37 @@
         <v>0</v>
       </c>
       <c r="I33" s="41">
-        <v>1535.94</v>
+        <v>0</v>
       </c>
       <c r="J33" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>44494</v>
+        <v>44589</v>
       </c>
       <c r="E34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44531</v>
+        <v>44617</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I34" s="42">
@@ -11723,25 +12052,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1">
-        <v>44532</v>
+        <v>44593</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44575</v>
+        <v>44595</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -11751,65 +12080,68 @@
         <v>0</v>
       </c>
       <c r="I35" s="41">
-        <v>0</v>
+        <v>4641</v>
       </c>
       <c r="J35" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="40">
-        <v>44540</v>
+        <v>96</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44593</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44546</v>
+        <v>44593</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I36" s="41">
-        <v>19988.28</v>
+        <v>28800</v>
       </c>
       <c r="J36" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="1">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44600</v>
+        <v>44596</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -11818,32 +12150,35 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I37" s="42">
-        <v>0</v>
+      <c r="I37" s="41">
+        <v>9013.82</v>
       </c>
       <c r="J37" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9013.82</v>
+      </c>
+      <c r="K37" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1">
-        <v>44547</v>
+        <v>44606</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44575</v>
+        <v>44608</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -11853,31 +12188,31 @@
         <v>0</v>
       </c>
       <c r="I38" s="41">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="J38" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1">
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44578</v>
+        <v>44610</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -11886,32 +12221,32 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="41">
         <v>0</v>
       </c>
       <c r="J39" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1">
-        <v>44578</v>
+        <v>44613</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44578</v>
+        <v>44614</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -11927,25 +12262,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D41" s="1">
-        <v>44497</v>
+        <v>44615</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44498</v>
+        <v>44623</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -11955,31 +12290,34 @@
         <v>0</v>
       </c>
       <c r="I41" s="41">
-        <v>4641</v>
+        <v>32765</v>
       </c>
       <c r="J41" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="1">
-        <v>44502</v>
+        <v>62</v>
+      </c>
+      <c r="D42" s="40">
+        <v>44623</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44502</v>
+        <v>44623</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -11989,31 +12327,34 @@
         <v>0</v>
       </c>
       <c r="I42" s="41">
-        <v>9013.82</v>
+        <v>5745.19</v>
       </c>
       <c r="J42" s="41">
-        <v>9013.82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1149.03</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1">
-        <v>44579</v>
+        <v>44623</v>
       </c>
       <c r="E43">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44607</v>
+        <v>44627</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -12022,32 +12363,35 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I43" s="42">
-        <v>0</v>
+      <c r="I43" s="41">
+        <v>6212</v>
       </c>
       <c r="J43" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1">
-        <v>44547</v>
+        <v>44627</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44547</v>
+        <v>44627</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -12057,31 +12401,31 @@
         <v>0</v>
       </c>
       <c r="I44" s="41">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="J44" s="41">
-        <v>8540</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1">
-        <v>44579</v>
+        <v>44628</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44579</v>
+        <v>44628</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -12090,32 +12434,32 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="41">
         <v>0</v>
       </c>
       <c r="J45" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>44579</v>
+        <v>44629</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44579</v>
+        <v>44635</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -12124,32 +12468,32 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I46" s="42">
-        <v>0</v>
+      <c r="I46" s="41">
+        <v>12205</v>
       </c>
       <c r="J46" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1">
-        <v>44576</v>
+        <v>44635</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44578</v>
+        <v>44643</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -12159,31 +12503,31 @@
         <v>0</v>
       </c>
       <c r="I47" s="41">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="J47" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -12207,7 +12551,7 @@
         <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1">
         <v>44643</v>
@@ -12234,20 +12578,140 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44713</v>
+      </c>
+      <c r="E50">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44756</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="41">
+        <v>0</v>
+      </c>
+      <c r="J50" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44774</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="42">
+        <v>0</v>
+      </c>
+      <c r="J51" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44774</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="42">
+        <v>0</v>
+      </c>
+      <c r="J52" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44775</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44775</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="42">
+        <v>0</v>
+      </c>
+      <c r="J53" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I54" s="41"/>
@@ -12541,9 +13005,25 @@
       <c r="I126" s="41"/>
       <c r="J126" s="41"/>
     </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/planning/JVE_Planning.xlsx
+++ b/planning/JVE_Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\maison\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E8B7F-B709-4622-9D8E-79BBF60CC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDE9B5-5C70-4BB6-8CF3-261103F39AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -25,9 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="152" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="131">
   <si>
     <t>Project</t>
   </si>
@@ -176,12 +175,6 @@
   </si>
   <si>
     <t>Démolition cheminée</t>
-  </si>
-  <si>
-    <t>Colonne en béton pour baie vitrée</t>
-  </si>
-  <si>
-    <t>Ouverture fenêtres</t>
   </si>
   <si>
     <t>Menuiserie extétieure</t>
@@ -422,6 +415,36 @@
   </si>
   <si>
     <t>Aménagement espace silo et chaudière</t>
+  </si>
+  <si>
+    <t>Installation chantier</t>
+  </si>
+  <si>
+    <t>Dalles &amp; Feraillage 1er</t>
+  </si>
+  <si>
+    <t>Dalles &amp; Feraillage grenier</t>
+  </si>
+  <si>
+    <t>Baie vitrée + ferrailles (poutres)</t>
+  </si>
+  <si>
+    <t>Ouverture fenêtres + matériel</t>
+  </si>
+  <si>
+    <t>Modification de fenêtre</t>
+  </si>
+  <si>
+    <t>Maçonnerie du rez + mur porteur</t>
+  </si>
+  <si>
+    <t>Pose de seuils</t>
+  </si>
+  <si>
+    <t>Cloison argex étage</t>
+  </si>
+  <si>
+    <t>Correction Grande baie vitrée (part 2)</t>
   </si>
 </sst>
 </file>
@@ -675,217 +698,10 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF7D7D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF7D7D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF7D7D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF7D7D"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF7D7D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF7D7D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF7D7D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF7D7D"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF7D7D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF7D7D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF7D7D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF7D7D"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -905,16 +721,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00&quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
@@ -1134,6 +944,219 @@
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF7D7D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF7D7D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF7D7D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF7D7D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF7D7D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF7D7D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF7D7D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF7D7D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF7D7D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF7D7D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF7D7D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF7D7D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1543,10 +1566,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.14964656349534036</c:v>
+                  <c:v>0.36819033073441765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85035343650465967</c:v>
+                  <c:v>0.63180966926558235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,18 +2733,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-3E89-438F-9816-332D1E0E14DC}"/>
@@ -2872,7 +2883,7 @@
                 <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39582.17</c:v>
+                  <c:v>124235.32999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,15 +2922,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF7D7D"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-3E89-438F-9816-332D1E0E14DC}"/>
@@ -3065,7 +3067,7 @@
                 <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>264504.37</c:v>
+                  <c:v>337421.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3366,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,7 +3571,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,10 +3819,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.6666666666666661E-2</c:v>
+                  <c:v>9.7719869706840393E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92333333333333334</c:v>
+                  <c:v>0.90228013029315957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5031,7 +5033,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="Workings!$P$2" horiz="1" max="360" page="7" val="205"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="Workings!$P$2" horiz="1" max="460" page="7" val="291"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5049,8 +5051,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Manager">
@@ -5073,7 +5075,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5279,7 +5281,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>39494</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -5459,7 +5461,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>8%</a:t>
+            <a:t>10%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1200">
             <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
@@ -5766,7 +5768,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>37%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1400"/>
         </a:p>
@@ -5777,7 +5779,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="bigbi" refreshedDate="44504.692816666669" missingItemsLimit="0" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="52" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="bigbi" refreshedDate="44508.710639236109" missingItemsLimit="0" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="59" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -5803,11 +5805,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
-      <sharedItems count="51">
+      <sharedItems count="59">
         <s v="Cablâge initial et mise en terre"/>
         <s v="Carotages (21x)"/>
-        <s v="Ouverture fenêtres"/>
-        <s v="Colonne en béton pour baie vitrée"/>
+        <s v="Installation chantier"/>
+        <s v="Maçonnerie du rez + mur porteur"/>
+        <s v="Pose de seuils"/>
+        <s v="Cloison argex étage"/>
+        <s v="Modification de fenêtre"/>
+        <s v="Dalles &amp; Feraillage 1er"/>
+        <s v="Dalles &amp; Feraillage grenier"/>
+        <s v="Ouverture fenêtres + matériel"/>
+        <s v="Baie vitrée + ferrailles (poutres)"/>
         <s v="Adaptation Porte d'entrée"/>
         <s v="Remplacement linteaux en bois"/>
         <s v="Conduites froid et chaud et évacuation"/>
@@ -5815,6 +5824,7 @@
         <s v="Chappe sur marches d'escalier"/>
         <s v="Correction Grande baie vitrée"/>
         <s v="Cablâge suite + réseau partie "/>
+        <s v="Correction Grande baie vitrée (part 2)"/>
         <s v="Escaliers"/>
         <s v="Démolition cheminée"/>
         <s v="Installation conduite et appareillage"/>
@@ -5877,12 +5887,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Start Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-04-23T00:00:00" maxDate="2022-08-03T00:00:00" count="45">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-01-19T00:00:00" maxDate="2022-08-03T00:00:00" count="48">
         <d v="2021-04-23T00:00:00"/>
         <d v="2021-05-21T00:00:00"/>
+        <d v="2021-01-19T00:00:00"/>
+        <d v="2021-09-03T00:00:00"/>
+        <d v="2021-07-21T00:00:00"/>
+        <d v="2021-04-02T00:00:00"/>
         <d v="2021-08-30T00:00:00"/>
         <d v="2021-08-31T00:00:00"/>
-        <d v="2021-09-03T00:00:00"/>
         <d v="2021-09-23T00:00:00"/>
         <d v="2021-10-06T00:00:00"/>
         <d v="2021-10-18T00:00:00"/>
@@ -5928,8 +5941,8 @@
     <cacheField name="Duration" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85" count="12">
         <n v="5"/>
+        <n v="1"/>
         <n v="2"/>
-        <n v="1"/>
         <n v="6"/>
         <n v="3"/>
         <n v="15"/>
@@ -5942,11 +5955,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="End Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-04-29T00:00:00" maxDate="2022-08-03T00:00:00" count="45">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-01-19T00:00:00" maxDate="2022-08-03T00:00:00" count="48">
         <d v="2021-04-29T00:00:00"/>
         <d v="2021-05-27T00:00:00"/>
+        <d v="2021-01-19T00:00:00"/>
+        <d v="2021-09-03T00:00:00"/>
+        <d v="2021-07-21T00:00:00"/>
+        <d v="2021-04-02T00:00:00"/>
         <d v="2021-08-31T00:00:00"/>
-        <d v="2021-09-03T00:00:00"/>
         <d v="2021-09-30T00:00:00"/>
         <d v="2021-10-06T00:00:00"/>
         <d v="2021-10-20T00:00:00"/>
@@ -5993,8 +6009,8 @@
     <cacheField name="Days completed" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6" count="5">
         <n v="5"/>
+        <n v="1"/>
         <n v="2"/>
-        <n v="1"/>
         <n v="6"/>
         <n v="0"/>
       </sharedItems>
@@ -6006,10 +6022,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Budget" numFmtId="168">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="32765"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="45240"/>
     </cacheField>
     <cacheField name="Actual" numFmtId="168">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="9013.82"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="17458"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -6021,7 +6037,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="59">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6031,7 +6047,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="3215"/>
+    <n v="3215.2"/>
     <n v="3215.2"/>
   </r>
   <r>
@@ -6055,76 +6071,160 @@
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5088"/>
-    <n v="0"/>
+    <n v="2650"/>
+    <n v="2650"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="3"/>
     <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
-    <n v="4664"/>
-    <n v="0"/>
+    <n v="5738"/>
+    <n v="5738"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="1590"/>
-    <n v="0"/>
+    <n v="1590"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="1"/>
     <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4452"/>
+    <n v="4452"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="530"/>
+    <n v="530"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="14310"/>
+    <n v="14310"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="45240"/>
+    <n v="16611.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="2"/>
-    <x v="3"/>
+    <x v="6"/>
     <x v="2"/>
     <x v="0"/>
+    <n v="5936"/>
+    <n v="5936"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12084"/>
+    <n v="12084"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1590"/>
+    <n v="1590"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
     <n v="1431"/>
-    <n v="0"/>
+    <n v="1431"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="6"/>
+    <x v="13"/>
     <x v="2"/>
-    <x v="5"/>
+    <x v="8"/>
     <x v="3"/>
-    <x v="4"/>
+    <x v="7"/>
     <x v="3"/>
     <x v="0"/>
     <n v="7177.26"/>
-    <n v="0"/>
+    <n v="7177.26"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="7"/>
+    <x v="14"/>
     <x v="3"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="19398"/>
-    <n v="7759.2"/>
+    <n v="17458"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="8"/>
+    <x v="15"/>
     <x v="4"/>
-    <x v="7"/>
+    <x v="10"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="9"/>
     <x v="4"/>
     <x v="1"/>
     <n v="647"/>
@@ -6132,23 +6232,23 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="9"/>
+    <x v="16"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="1500"/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="10"/>
+    <x v="17"/>
     <x v="0"/>
-    <x v="9"/>
+    <x v="12"/>
     <x v="5"/>
-    <x v="8"/>
+    <x v="11"/>
     <x v="4"/>
     <x v="1"/>
     <n v="3884"/>
@@ -6156,11 +6256,11 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="9"/>
+    <x v="18"/>
     <x v="1"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="9"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="12"/>
     <x v="4"/>
     <x v="1"/>
     <n v="1500"/>
@@ -6168,11 +6268,11 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="11"/>
+    <x v="19"/>
     <x v="1"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="10"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="13"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2438"/>
@@ -6180,11 +6280,11 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="12"/>
+    <x v="20"/>
     <x v="1"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="11"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="14"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2544"/>
@@ -6192,23 +6292,23 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="13"/>
+    <x v="21"/>
     <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="12"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="15"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="14966"/>
+    <n v="5104.92"/>
     <n v="5104.92"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="14"/>
+    <x v="22"/>
     <x v="4"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="13"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="16"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6216,11 +6316,11 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="15"/>
+    <x v="23"/>
     <x v="3"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="14"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6228,11 +6328,11 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="16"/>
+    <x v="24"/>
     <x v="0"/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="6"/>
-    <x v="15"/>
+    <x v="18"/>
     <x v="4"/>
     <x v="1"/>
     <n v="10148"/>
@@ -6240,11 +6340,11 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="17"/>
+    <x v="25"/>
     <x v="4"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="19"/>
     <x v="4"/>
     <x v="1"/>
     <n v="6226"/>
@@ -6252,11 +6352,11 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="18"/>
+    <x v="26"/>
     <x v="4"/>
-    <x v="18"/>
+    <x v="21"/>
     <x v="4"/>
-    <x v="17"/>
+    <x v="20"/>
     <x v="4"/>
     <x v="1"/>
     <n v="4667"/>
@@ -6264,11 +6364,11 @@
   </r>
   <r>
     <x v="6"/>
-    <x v="19"/>
+    <x v="27"/>
     <x v="4"/>
-    <x v="19"/>
-    <x v="2"/>
-    <x v="18"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="21"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6276,11 +6376,11 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="20"/>
+    <x v="28"/>
     <x v="5"/>
-    <x v="19"/>
-    <x v="2"/>
-    <x v="18"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="21"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2805"/>
@@ -6288,11 +6388,11 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="21"/>
+    <x v="29"/>
     <x v="4"/>
-    <x v="20"/>
+    <x v="23"/>
     <x v="7"/>
-    <x v="19"/>
+    <x v="22"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6300,23 +6400,23 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="22"/>
+    <x v="30"/>
     <x v="6"/>
-    <x v="21"/>
-    <x v="2"/>
-    <x v="20"/>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="23"/>
     <x v="4"/>
     <x v="1"/>
     <n v="854.6"/>
-    <n v="0"/>
+    <n v="854.6"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="23"/>
+    <x v="31"/>
     <x v="4"/>
-    <x v="21"/>
-    <x v="1"/>
-    <x v="21"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="24"/>
     <x v="4"/>
     <x v="1"/>
     <n v="13343.28"/>
@@ -6324,11 +6424,11 @@
   </r>
   <r>
     <x v="8"/>
+    <x v="32"/>
+    <x v="7"/>
     <x v="24"/>
-    <x v="7"/>
-    <x v="21"/>
     <x v="0"/>
-    <x v="22"/>
+    <x v="25"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2989"/>
@@ -6336,11 +6436,11 @@
   </r>
   <r>
     <x v="9"/>
+    <x v="33"/>
+    <x v="8"/>
     <x v="25"/>
     <x v="8"/>
-    <x v="22"/>
-    <x v="8"/>
-    <x v="23"/>
+    <x v="26"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6348,57 +6448,9 @@
   </r>
   <r>
     <x v="4"/>
+    <x v="34"/>
+    <x v="4"/>
     <x v="26"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="27"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="3"/>
-    <x v="25"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="31998"/>
-    <n v="4800"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="28"/>
-    <x v="4"/>
-    <x v="25"/>
-    <x v="0"/>
-    <x v="25"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="19988.28"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="29"/>
-    <x v="9"/>
-    <x v="26"/>
-    <x v="2"/>
-    <x v="26"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="1535.94"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="30"/>
-    <x v="4"/>
-    <x v="27"/>
     <x v="1"/>
     <x v="27"/>
     <x v="4"/>
@@ -6407,12 +6459,60 @@
     <n v="0"/>
   </r>
   <r>
+    <x v="10"/>
+    <x v="35"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="31998"/>
+    <n v="4800"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="36"/>
+    <x v="4"/>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="19988.28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="37"/>
+    <x v="9"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1535.94"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="38"/>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="8"/>
+    <x v="39"/>
+    <x v="10"/>
     <x v="31"/>
-    <x v="10"/>
-    <x v="28"/>
     <x v="9"/>
-    <x v="28"/>
+    <x v="31"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6420,11 +6520,11 @@
   </r>
   <r>
     <x v="11"/>
+    <x v="40"/>
+    <x v="4"/>
     <x v="32"/>
     <x v="4"/>
-    <x v="29"/>
-    <x v="4"/>
-    <x v="29"/>
+    <x v="32"/>
     <x v="4"/>
     <x v="1"/>
     <n v="4641"/>
@@ -6432,11 +6532,11 @@
   </r>
   <r>
     <x v="12"/>
+    <x v="41"/>
+    <x v="11"/>
+    <x v="32"/>
+    <x v="1"/>
     <x v="33"/>
-    <x v="11"/>
-    <x v="29"/>
-    <x v="2"/>
-    <x v="30"/>
     <x v="4"/>
     <x v="1"/>
     <n v="28800"/>
@@ -6444,11 +6544,11 @@
   </r>
   <r>
     <x v="11"/>
+    <x v="42"/>
+    <x v="4"/>
+    <x v="33"/>
+    <x v="1"/>
     <x v="34"/>
-    <x v="4"/>
-    <x v="30"/>
-    <x v="2"/>
-    <x v="31"/>
     <x v="4"/>
     <x v="1"/>
     <n v="9013.82"/>
@@ -6456,11 +6556,11 @@
   </r>
   <r>
     <x v="13"/>
+    <x v="43"/>
+    <x v="12"/>
+    <x v="34"/>
+    <x v="4"/>
     <x v="35"/>
-    <x v="12"/>
-    <x v="31"/>
-    <x v="4"/>
-    <x v="32"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6468,69 +6568,9 @@
   </r>
   <r>
     <x v="13"/>
-    <x v="36"/>
+    <x v="44"/>
     <x v="12"/>
-    <x v="32"/>
-    <x v="1"/>
-    <x v="33"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="37"/>
-    <x v="12"/>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="34"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="38"/>
-    <x v="12"/>
-    <x v="34"/>
-    <x v="10"/>
     <x v="35"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="32765"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="39"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="5745.19"/>
-    <n v="1149.03"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="40"/>
-    <x v="4"/>
-    <x v="35"/>
-    <x v="4"/>
-    <x v="36"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="6212"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="41"/>
-    <x v="13"/>
-    <x v="36"/>
     <x v="2"/>
     <x v="36"/>
     <x v="4"/>
@@ -6539,10 +6579,10 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="42"/>
     <x v="13"/>
-    <x v="37"/>
+    <x v="45"/>
+    <x v="12"/>
+    <x v="36"/>
     <x v="2"/>
     <x v="37"/>
     <x v="4"/>
@@ -6551,23 +6591,47 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="43"/>
     <x v="13"/>
-    <x v="38"/>
-    <x v="0"/>
+    <x v="46"/>
+    <x v="12"/>
+    <x v="37"/>
+    <x v="10"/>
     <x v="38"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="12205"/>
+    <n v="32765"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="44"/>
-    <x v="10"/>
+    <x v="13"/>
+    <x v="47"/>
+    <x v="2"/>
+    <x v="38"/>
+    <x v="1"/>
+    <x v="38"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5745.19"/>
+    <n v="1149.03"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="48"/>
+    <x v="4"/>
+    <x v="38"/>
+    <x v="4"/>
     <x v="39"/>
-    <x v="10"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="6212"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="49"/>
+    <x v="13"/>
+    <x v="39"/>
+    <x v="1"/>
     <x v="39"/>
     <x v="4"/>
     <x v="1"/>
@@ -6576,10 +6640,10 @@
   </r>
   <r>
     <x v="14"/>
-    <x v="45"/>
+    <x v="50"/>
     <x v="13"/>
     <x v="40"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="40"/>
     <x v="4"/>
     <x v="1"/>
@@ -6587,12 +6651,48 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="46"/>
-    <x v="10"/>
+    <x v="14"/>
+    <x v="51"/>
+    <x v="13"/>
     <x v="41"/>
     <x v="0"/>
     <x v="41"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="12205"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="52"/>
+    <x v="10"/>
+    <x v="42"/>
+    <x v="10"/>
+    <x v="42"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="53"/>
+    <x v="13"/>
+    <x v="43"/>
+    <x v="1"/>
+    <x v="43"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="54"/>
+    <x v="10"/>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="44"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6600,11 +6700,11 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="47"/>
+    <x v="55"/>
     <x v="14"/>
-    <x v="42"/>
+    <x v="45"/>
     <x v="11"/>
-    <x v="42"/>
+    <x v="45"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6612,11 +6712,11 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="48"/>
+    <x v="56"/>
     <x v="14"/>
-    <x v="43"/>
-    <x v="2"/>
-    <x v="43"/>
+    <x v="46"/>
+    <x v="1"/>
+    <x v="46"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6624,11 +6724,11 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="49"/>
+    <x v="57"/>
     <x v="14"/>
-    <x v="43"/>
-    <x v="2"/>
-    <x v="43"/>
+    <x v="46"/>
+    <x v="1"/>
+    <x v="46"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6636,11 +6736,11 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="50"/>
+    <x v="58"/>
     <x v="14"/>
-    <x v="44"/>
-    <x v="2"/>
-    <x v="44"/>
+    <x v="47"/>
+    <x v="1"/>
+    <x v="47"/>
     <x v="4"/>
     <x v="1"/>
     <n v="0"/>
@@ -6650,8 +6750,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Gantt" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:J58" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Gantt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:J65" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField name="Topic" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="16">
@@ -6674,58 +6774,66 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="51">
+      <items count="59">
+        <item x="11"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="53"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="56"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="28"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="47"/>
+        <item x="32"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="16"/>
+        <item x="23"/>
+        <item x="34"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="2"/>
+        <item x="6"/>
         <item x="7"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
+        <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
-        <item x="16"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="17"/>
         <item x="18"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="25"/>
-        <item x="47"/>
-        <item x="8"/>
-        <item x="48"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="20"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="39"/>
-        <item x="24"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="28"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="26"/>
       </items>
     </pivotField>
     <pivotField name="Acteur" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6748,52 +6856,55 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="45">
-        <item x="4"/>
-        <item x="2"/>
+      <items count="48">
+        <item x="3"/>
         <item x="6"/>
-        <item x="5"/>
+        <item x="9"/>
+        <item x="8"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="8"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="22"/>
         <item x="10"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="19"/>
         <item x="7"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="11"/>
         <item x="12"/>
+        <item x="14"/>
         <item x="15"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
+        <item x="18"/>
         <item x="34"/>
         <item x="35"/>
-        <item x="16"/>
-        <item x="21"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="44"/>
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="29"/>
         <item x="26"/>
+        <item x="21"/>
         <item x="23"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="24"/>
-        <item x="22"/>
-        <item x="28"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6802,8 +6913,8 @@
         <item x="0"/>
         <item x="3"/>
         <item x="10"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
         <item x="9"/>
         <item x="8"/>
         <item x="11"/>
@@ -6813,60 +6924,63 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="45">
-        <item x="4"/>
+      <items count="48">
+        <item x="7"/>
         <item x="3"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="21"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="24"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="5"/>
+        <item x="21"/>
+        <item x="6"/>
         <item x="8"/>
-        <item x="10"/>
         <item x="11"/>
+        <item x="13"/>
         <item x="14"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
+        <item x="17"/>
         <item x="35"/>
         <item x="36"/>
-        <item x="15"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="6"/>
-        <item x="42"/>
-        <item x="25"/>
-        <item x="43"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="44"/>
         <item x="37"/>
         <item x="38"/>
+        <item x="39"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="45"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="47"/>
         <item x="40"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="22"/>
         <item x="26"/>
-        <item x="24"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="28"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField name="Days comp." axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
         <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -6889,7 +7003,7 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="53">
+  <rowItems count="60">
     <i>
       <x/>
       <x/>
@@ -6928,7 +7042,88 @@
       <x/>
     </i>
     <i r="1">
+      <x v="46"/>
+      <x/>
+      <x v="6"/>
+      <x v="2"/>
       <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+      <x/>
+      <x v="45"/>
+      <x v="45"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+      <x/>
+      <x v="45"/>
+      <x v="45"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+      <x/>
+      <x/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+      <x/>
+      <x v="46"/>
+      <x v="46"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+      <x/>
+      <x/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+      <x/>
+      <x v="47"/>
+      <x v="47"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+      <x/>
+      <x v="46"/>
+      <x v="46"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+      <x/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
       <x/>
       <x v="12"/>
       <x v="10"/>
@@ -6937,24 +7132,8 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="5"/>
+      <x v="58"/>
       <x/>
-      <x v="1"/>
-      <x v="10"/>
-      <x v="5"/>
-      <x v="3"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-      <x/>
-      <x v="6"/>
-      <x v="2"/>
-      <x v="4"/>
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i r="3">
       <x v="7"/>
       <x v="3"/>
       <x v="4"/>
@@ -6963,7 +7142,7 @@
     </i>
     <i>
       <x v="1"/>
-      <x v="6"/>
+      <x v="4"/>
       <x v="1"/>
       <x v="2"/>
       <x v="11"/>
@@ -6972,7 +7151,7 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="49"/>
+      <x v="47"/>
       <x v="1"/>
       <x v="16"/>
       <x v="15"/>
@@ -6982,7 +7161,7 @@
     </i>
     <i>
       <x v="2"/>
-      <x v="7"/>
+      <x v="5"/>
       <x v="2"/>
       <x v="34"/>
       <x v="20"/>
@@ -6991,7 +7170,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="6"/>
       <x v="2"/>
       <x v="35"/>
       <x v="34"/>
@@ -7000,7 +7179,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="7"/>
       <x v="2"/>
       <x v="36"/>
       <x v="35"/>
@@ -7009,7 +7188,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="10"/>
+      <x v="8"/>
       <x v="2"/>
       <x v="37"/>
       <x v="36"/>
@@ -7019,7 +7198,7 @@
     </i>
     <i>
       <x v="3"/>
-      <x v="11"/>
+      <x v="9"/>
       <x v="3"/>
       <x v="17"/>
       <x v="16"/>
@@ -7028,7 +7207,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="10"/>
       <x v="3"/>
       <x v="18"/>
       <x v="17"/>
@@ -7037,7 +7216,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="13"/>
+      <x v="11"/>
       <x v="3"/>
       <x v="19"/>
       <x v="18"/>
@@ -7046,7 +7225,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="14"/>
+      <x v="12"/>
       <x v="3"/>
       <x v="20"/>
       <x v="19"/>
@@ -7055,7 +7234,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="15"/>
+      <x v="13"/>
       <x v="4"/>
       <x v="21"/>
       <x v="20"/>
@@ -7064,7 +7243,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="43"/>
+      <x v="41"/>
       <x v="5"/>
       <x v="21"/>
       <x v="19"/>
@@ -7074,7 +7253,7 @@
     </i>
     <i>
       <x v="4"/>
-      <x v="16"/>
+      <x v="14"/>
       <x v="5"/>
       <x v="3"/>
       <x/>
@@ -7083,7 +7262,7 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="45"/>
+      <x v="43"/>
       <x v="13"/>
       <x v="38"/>
       <x v="37"/>
@@ -7093,7 +7272,7 @@
     </i>
     <i>
       <x v="5"/>
-      <x v="17"/>
+      <x v="15"/>
       <x v="6"/>
       <x v="4"/>
       <x v="7"/>
@@ -7102,7 +7281,7 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="18"/>
+      <x v="16"/>
       <x v="6"/>
       <x v="5"/>
       <x v="8"/>
@@ -7111,7 +7290,7 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="19"/>
+      <x v="17"/>
       <x v="6"/>
       <x v="13"/>
       <x v="12"/>
@@ -7120,7 +7299,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="20"/>
+      <x v="18"/>
       <x v="6"/>
       <x v="22"/>
       <x v="21"/>
@@ -7129,7 +7308,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="21"/>
+      <x v="19"/>
       <x v="7"/>
       <x v="23"/>
       <x v="22"/>
@@ -7139,7 +7318,7 @@
     </i>
     <i>
       <x v="6"/>
-      <x v="22"/>
+      <x v="20"/>
       <x v="4"/>
       <x v="24"/>
       <x v="23"/>
@@ -7148,7 +7327,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="23"/>
+      <x v="21"/>
       <x v="4"/>
       <x v="25"/>
       <x v="24"/>
@@ -7158,7 +7337,7 @@
     </i>
     <i>
       <x v="7"/>
-      <x v="24"/>
+      <x v="22"/>
       <x v="4"/>
       <x v="26"/>
       <x v="40"/>
@@ -7167,7 +7346,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="25"/>
+      <x v="23"/>
       <x v="4"/>
       <x v="40"/>
       <x v="41"/>
@@ -7176,7 +7355,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="26"/>
+      <x v="24"/>
       <x v="4"/>
       <x v="41"/>
       <x v="42"/>
@@ -7185,7 +7364,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="31"/>
+      <x v="29"/>
       <x v="4"/>
       <x v="11"/>
       <x v="25"/>
@@ -7194,7 +7373,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="33"/>
+      <x v="31"/>
       <x v="4"/>
       <x v="30"/>
       <x v="29"/>
@@ -7203,7 +7382,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="47"/>
+      <x v="45"/>
       <x v="4"/>
       <x v="27"/>
       <x v="27"/>
@@ -7212,7 +7391,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="50"/>
+      <x v="48"/>
       <x v="4"/>
       <x v="39"/>
       <x v="38"/>
@@ -7222,7 +7401,7 @@
     </i>
     <i>
       <x v="8"/>
-      <x v="27"/>
+      <x v="25"/>
       <x v="4"/>
       <x v="23"/>
       <x v="6"/>
@@ -7231,7 +7410,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="36"/>
+      <x v="34"/>
       <x v="14"/>
       <x v="44"/>
       <x v="44"/>
@@ -7240,7 +7419,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="44"/>
+      <x v="42"/>
       <x v="12"/>
       <x v="23"/>
       <x v="39"/>
@@ -7250,7 +7429,7 @@
     </i>
     <i>
       <x v="9"/>
-      <x v="28"/>
+      <x v="26"/>
       <x v="5"/>
       <x v="42"/>
       <x v="27"/>
@@ -7260,7 +7439,7 @@
     </i>
     <i>
       <x v="10"/>
-      <x v="29"/>
+      <x v="27"/>
       <x v="8"/>
       <x v="43"/>
       <x v="43"/>
@@ -7270,7 +7449,7 @@
     </i>
     <i>
       <x v="11"/>
-      <x v="30"/>
+      <x v="28"/>
       <x v="9"/>
       <x v="28"/>
       <x v="26"/>
@@ -7279,7 +7458,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="32"/>
+      <x v="30"/>
       <x v="9"/>
       <x v="29"/>
       <x v="28"/>
@@ -7288,7 +7467,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="38"/>
+      <x v="36"/>
       <x v="9"/>
       <x v="29"/>
       <x v="28"/>
@@ -7297,7 +7476,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="39"/>
+      <x v="37"/>
       <x v="9"/>
       <x v="33"/>
       <x v="33"/>
@@ -7306,7 +7485,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="40"/>
+      <x v="38"/>
       <x v="11"/>
       <x v="10"/>
       <x v="9"/>
@@ -7316,7 +7495,7 @@
     </i>
     <i>
       <x v="12"/>
-      <x v="34"/>
+      <x v="32"/>
       <x v="4"/>
       <x v="31"/>
       <x v="30"/>
@@ -7325,7 +7504,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="35"/>
+      <x v="33"/>
       <x v="4"/>
       <x v="32"/>
       <x v="31"/>
@@ -7335,7 +7514,7 @@
     </i>
     <i>
       <x v="13"/>
-      <x v="37"/>
+      <x v="35"/>
       <x v="10"/>
       <x v="31"/>
       <x v="32"/>
@@ -7345,7 +7524,7 @@
     </i>
     <i>
       <x v="14"/>
-      <x v="41"/>
+      <x v="39"/>
       <x v="14"/>
       <x v="8"/>
       <x v="4"/>
@@ -7354,7 +7533,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="42"/>
+      <x v="40"/>
       <x v="14"/>
       <x v="9"/>
       <x v="5"/>
@@ -7364,7 +7543,7 @@
     </i>
     <i>
       <x v="15"/>
-      <x v="46"/>
+      <x v="44"/>
       <x v="4"/>
       <x v="10"/>
       <x v="9"/>
@@ -7392,7 +7571,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="48">
-    <format dxfId="71">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7402,88 +7581,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="52">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="51">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="50">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="49">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="48">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="56">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
     <format dxfId="47">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
@@ -7554,25 +7665,93 @@
       </pivotArea>
     </format>
     <format dxfId="29">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="25">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="24">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="23">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="22">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -7593,7 +7772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Budget_v_Actual" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -7742,7 +7921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="152" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -7896,26 +8075,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J53" totalsRowShown="0">
-  <autoFilter ref="A1:J53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J53">
-    <sortCondition ref="D1:D53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J60" totalsRowShown="0">
+  <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J60">
+    <sortCondition ref="D1:D60"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="End Date" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="End Date" dataDxfId="4">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Days completed" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Progress" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Days completed" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Progress" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Budget" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Budget" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8223,9 +8402,9 @@
   </sheetPr>
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8238,11 +8417,9 @@
     <col min="6" max="6" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="30" width="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="50" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="50" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8252,7 +8429,7 @@
       <c r="B1" s="26"/>
       <c r="C1" s="47" t="str">
         <f>TEXT(MIN(D6:D51),"d-mmm-yy")&amp;" to "&amp;TEXT(MAX(E6:E51),"d-mmm-yy")</f>
-        <v>d-avr-yy to d-août-yy</v>
+        <v>d-janv-yy to d-mars-yy</v>
       </c>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
@@ -8419,163 +8596,163 @@
       </c>
       <c r="K5" s="39">
         <f>MIN(D6:D50)+Workings!P2</f>
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="L5" s="39">
         <f>+K5+1</f>
-        <v>44515</v>
+        <v>44507</v>
       </c>
       <c r="M5" s="39">
         <f t="shared" ref="M5:AJ5" si="0">+L5+1</f>
-        <v>44516</v>
+        <v>44508</v>
       </c>
       <c r="N5" s="39">
         <f t="shared" si="0"/>
-        <v>44517</v>
+        <v>44509</v>
       </c>
       <c r="O5" s="39">
         <f t="shared" si="0"/>
-        <v>44518</v>
+        <v>44510</v>
       </c>
       <c r="P5" s="39">
         <f t="shared" si="0"/>
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="Q5" s="39">
         <f t="shared" si="0"/>
-        <v>44520</v>
+        <v>44512</v>
       </c>
       <c r="R5" s="39">
         <f t="shared" si="0"/>
-        <v>44521</v>
+        <v>44513</v>
       </c>
       <c r="S5" s="39">
         <f t="shared" si="0"/>
-        <v>44522</v>
+        <v>44514</v>
       </c>
       <c r="T5" s="39">
         <f t="shared" si="0"/>
-        <v>44523</v>
+        <v>44515</v>
       </c>
       <c r="U5" s="39">
         <f t="shared" si="0"/>
-        <v>44524</v>
+        <v>44516</v>
       </c>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>44525</v>
+        <v>44517</v>
       </c>
       <c r="W5" s="39">
         <f t="shared" si="0"/>
-        <v>44526</v>
+        <v>44518</v>
       </c>
       <c r="X5" s="39">
         <f t="shared" si="0"/>
-        <v>44527</v>
+        <v>44519</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="0"/>
-        <v>44528</v>
+        <v>44520</v>
       </c>
       <c r="Z5" s="39">
         <f t="shared" si="0"/>
-        <v>44529</v>
+        <v>44521</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" si="0"/>
-        <v>44530</v>
+        <v>44522</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="0"/>
-        <v>44531</v>
+        <v>44523</v>
       </c>
       <c r="AC5" s="39">
         <f t="shared" si="0"/>
-        <v>44532</v>
+        <v>44524</v>
       </c>
       <c r="AD5" s="39">
         <f t="shared" si="0"/>
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="AE5" s="39">
         <f t="shared" si="0"/>
-        <v>44534</v>
+        <v>44526</v>
       </c>
       <c r="AF5" s="39">
         <f t="shared" si="0"/>
-        <v>44535</v>
+        <v>44527</v>
       </c>
       <c r="AG5" s="39">
         <f t="shared" si="0"/>
-        <v>44536</v>
+        <v>44528</v>
       </c>
       <c r="AH5" s="39">
         <f t="shared" si="0"/>
-        <v>44537</v>
+        <v>44529</v>
       </c>
       <c r="AI5" s="39">
         <f t="shared" si="0"/>
-        <v>44538</v>
+        <v>44530</v>
       </c>
       <c r="AJ5" s="39">
         <f t="shared" si="0"/>
-        <v>44539</v>
+        <v>44531</v>
       </c>
       <c r="AK5" s="39">
         <f t="shared" ref="AK5:AX5" si="1">+AJ5+1</f>
-        <v>44540</v>
+        <v>44532</v>
       </c>
       <c r="AL5" s="39">
         <f t="shared" si="1"/>
-        <v>44541</v>
+        <v>44533</v>
       </c>
       <c r="AM5" s="39">
         <f t="shared" si="1"/>
-        <v>44542</v>
+        <v>44534</v>
       </c>
       <c r="AN5" s="39">
         <f t="shared" si="1"/>
-        <v>44543</v>
+        <v>44535</v>
       </c>
       <c r="AO5" s="39">
         <f t="shared" si="1"/>
-        <v>44544</v>
+        <v>44536</v>
       </c>
       <c r="AP5" s="39">
         <f t="shared" si="1"/>
-        <v>44545</v>
+        <v>44537</v>
       </c>
       <c r="AQ5" s="39">
         <f t="shared" si="1"/>
-        <v>44546</v>
+        <v>44538</v>
       </c>
       <c r="AR5" s="39">
         <f t="shared" si="1"/>
-        <v>44547</v>
+        <v>44539</v>
       </c>
       <c r="AS5" s="39">
         <f t="shared" si="1"/>
-        <v>44548</v>
+        <v>44540</v>
       </c>
       <c r="AT5" s="39">
         <f t="shared" si="1"/>
-        <v>44549</v>
+        <v>44541</v>
       </c>
       <c r="AU5" s="39">
         <f t="shared" si="1"/>
-        <v>44550</v>
+        <v>44542</v>
       </c>
       <c r="AV5" s="39">
         <f t="shared" si="1"/>
-        <v>44551</v>
+        <v>44543</v>
       </c>
       <c r="AW5" s="39">
         <f t="shared" si="1"/>
-        <v>44552</v>
+        <v>44544</v>
       </c>
       <c r="AX5" s="39">
         <f t="shared" si="1"/>
-        <v>44553</v>
+        <v>44545</v>
       </c>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
@@ -8610,7 +8787,7 @@
         <v>1590</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="7" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -8640,7 +8817,7 @@
         <v>1431</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="8" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -8706,16 +8883,16 @@
     <row r="10" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>44439</v>
+        <v>44502</v>
       </c>
       <c r="E10" s="1">
-        <v>44439</v>
+        <v>44502</v>
       </c>
       <c r="F10" s="45">
         <v>1</v>
@@ -8727,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>4664</v>
+        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -8736,46 +8913,46 @@
     <row r="11" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>44438</v>
+        <v>44215</v>
       </c>
       <c r="E11" s="1">
-        <v>44439</v>
+        <v>44215</v>
       </c>
       <c r="F11" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>5088</v>
+        <v>2650</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="12" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1">
-        <v>44502</v>
+        <v>44215</v>
       </c>
       <c r="E12" s="1">
-        <v>44502</v>
+        <v>44215</v>
       </c>
       <c r="F12" s="45">
         <v>1</v>
@@ -8787,53 +8964,55 @@
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>1500</v>
+        <v>5738</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="13" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="1">
-        <v>44508</v>
+        <v>44442</v>
       </c>
       <c r="E13" s="1">
-        <v>44508</v>
+        <v>44442</v>
       </c>
       <c r="F13" s="45">
         <v>1</v>
       </c>
       <c r="G13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="14" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
+      <c r="A14"/>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
-        <v>44475</v>
+        <v>44398</v>
       </c>
       <c r="E14" s="1">
-        <v>44475</v>
+        <v>44398</v>
       </c>
       <c r="F14" s="45">
         <v>1</v>
@@ -8845,40 +9024,40 @@
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>19398</v>
+        <v>4452</v>
       </c>
       <c r="J14" s="3">
-        <v>7759.2</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>44523</v>
+        <v>44442</v>
       </c>
       <c r="E15" s="1">
-        <v>44523</v>
+        <v>44442</v>
       </c>
       <c r="F15" s="45">
         <v>1</v>
       </c>
       <c r="G15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -8892,35 +9071,33 @@
       <c r="V15"/>
     </row>
     <row r="16" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
-        <v>44627</v>
+        <v>44288</v>
       </c>
       <c r="E16" s="1">
-        <v>44627</v>
+        <v>44288</v>
       </c>
       <c r="F16" s="45">
         <v>1</v>
       </c>
       <c r="G16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>14310</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>14310</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -8936,31 +9113,31 @@
     <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
-        <v>44628</v>
+        <v>44398</v>
       </c>
       <c r="E17" s="1">
-        <v>44628</v>
+        <v>44398</v>
       </c>
       <c r="F17" s="45">
         <v>1</v>
       </c>
       <c r="G17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>45240</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>16611.5</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -8976,31 +9153,31 @@
     <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
-        <v>44629</v>
+        <v>44438</v>
       </c>
       <c r="E18" s="1">
-        <v>44635</v>
+        <v>44439</v>
       </c>
       <c r="F18" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>12205</v>
+        <v>5936</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>5936</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -9016,31 +9193,31 @@
     <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
-        <v>44636</v>
+        <v>44439</v>
       </c>
       <c r="E19" s="1">
-        <v>44636</v>
+        <v>44439</v>
       </c>
       <c r="F19" s="45">
         <v>1</v>
       </c>
       <c r="G19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>12084</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>12084</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -9054,23 +9231,21 @@
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
-        <v>44606</v>
+        <v>44508</v>
       </c>
       <c r="E20" s="1">
-        <v>44608</v>
+        <v>44508</v>
       </c>
       <c r="F20" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
@@ -9079,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -9095,33 +9270,35 @@
       <c r="V20"/>
     </row>
     <row r="21" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1">
-        <v>44609</v>
+        <v>44475</v>
       </c>
       <c r="E21" s="1">
-        <v>44610</v>
+        <v>44475</v>
       </c>
       <c r="F21" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>19398</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>17458</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -9132,19 +9309,19 @@
     <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
-        <v>44613</v>
+        <v>44523</v>
       </c>
       <c r="E22" s="1">
-        <v>44614</v>
+        <v>44523</v>
       </c>
       <c r="F22" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="12">
         <v>0</v>
@@ -9165,21 +9342,23 @@
       <c r="V22"/>
     </row>
     <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
-        <v>44615</v>
+        <v>44627</v>
       </c>
       <c r="E23" s="1">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="F23" s="45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23" s="12">
         <v>0</v>
@@ -9188,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>32765</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -9197,19 +9376,19 @@
     <row r="24" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1">
-        <v>44623</v>
+        <v>44628</v>
       </c>
       <c r="E24" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="F24" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="12">
         <v>0</v>
@@ -9218,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -9227,81 +9406,81 @@
     <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1">
-        <v>44623</v>
+        <v>44629</v>
       </c>
       <c r="E25" s="1">
-        <v>44623</v>
+        <v>44635</v>
       </c>
       <c r="F25" s="45">
+        <v>5</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>12205</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44636</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44636</v>
+      </c>
+      <c r="F26" s="45">
         <v>1</v>
       </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>5745.19</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1149.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44462</v>
-      </c>
-      <c r="E26" s="1">
-        <v>44469</v>
-      </c>
-      <c r="F26" s="45">
-        <v>6</v>
-      </c>
       <c r="G26" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>7177.26</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
-        <v>44583</v>
+        <v>44606</v>
       </c>
       <c r="E27" s="1">
-        <v>44585</v>
+        <v>44608</v>
       </c>
       <c r="F27" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="12">
         <v>0</v>
@@ -9310,69 +9489,67 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>1535.94</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
+      <c r="A28"/>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1">
-        <v>44309</v>
+        <v>44609</v>
       </c>
       <c r="E28" s="1">
-        <v>44315</v>
+        <v>44610</v>
       </c>
       <c r="F28" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>3215</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>3215.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1">
-        <v>44337</v>
+        <v>44613</v>
       </c>
       <c r="E29" s="1">
-        <v>44343</v>
+        <v>44614</v>
       </c>
       <c r="F29" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -9381,19 +9558,19 @@
     <row r="30" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1">
-        <v>44506</v>
+        <v>44615</v>
       </c>
       <c r="E30" s="1">
-        <v>44526</v>
+        <v>44623</v>
       </c>
       <c r="F30" s="45">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G30" s="12">
         <v>0</v>
@@ -9402,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>3884</v>
+        <v>32765</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -9411,19 +9588,19 @@
     <row r="31" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
-        <v>44526</v>
+        <v>44623</v>
       </c>
       <c r="E31" s="1">
-        <v>44644</v>
+        <v>44627</v>
       </c>
       <c r="F31" s="45">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="G31" s="12">
         <v>0</v>
@@ -9432,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>10148</v>
+        <v>6212</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -9441,16 +9618,16 @@
     <row r="32" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1">
-        <v>44536</v>
+        <v>44623</v>
       </c>
       <c r="E32" s="1">
-        <v>44536</v>
+        <v>44623</v>
       </c>
       <c r="F32" s="45">
         <v>1</v>
@@ -9462,57 +9639,57 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>854.6</v>
+        <v>5745.19</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>1149.03</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1">
-        <v>44515</v>
+        <v>44462</v>
       </c>
       <c r="E33" s="1">
-        <v>44516</v>
+        <v>44469</v>
       </c>
       <c r="F33" s="45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G33" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>14966</v>
+        <v>7177.26</v>
       </c>
       <c r="J33" s="3">
-        <v>5104.92</v>
+        <v>7177.26</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D34" s="1">
-        <v>44517</v>
+        <v>44583</v>
       </c>
       <c r="E34" s="1">
-        <v>44517</v>
+        <v>44585</v>
       </c>
       <c r="F34" s="45">
         <v>1</v>
@@ -9524,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>1535.94</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -9532,61 +9709,61 @@
     </row>
     <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1">
-        <v>44529</v>
+        <v>44309</v>
       </c>
       <c r="E35" s="1">
-        <v>44529</v>
+        <v>44315</v>
       </c>
       <c r="F35" s="45">
+        <v>5</v>
+      </c>
+      <c r="G35" s="12">
+        <v>5</v>
+      </c>
+      <c r="H35" s="11">
         <v>1</v>
       </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>6226</v>
+        <v>3215.2</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>3215.2</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1">
-        <v>44530</v>
+        <v>44337</v>
       </c>
       <c r="E36" s="1">
-        <v>44532</v>
+        <v>44343</v>
       </c>
       <c r="F36" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>4667</v>
+        <v>525</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -9595,19 +9772,19 @@
     <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1">
-        <v>44532</v>
+        <v>44506</v>
       </c>
       <c r="E37" s="1">
-        <v>44545</v>
+        <v>44526</v>
       </c>
       <c r="F37" s="45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="12">
         <v>0</v>
@@ -9616,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>3884</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -9625,19 +9802,19 @@
     <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1">
-        <v>44487</v>
+        <v>44526</v>
       </c>
       <c r="E38" s="1">
-        <v>44489</v>
+        <v>44644</v>
       </c>
       <c r="F38" s="45">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="G38" s="12">
         <v>0</v>
@@ -9646,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>647</v>
+        <v>10148</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -9655,50 +9832,52 @@
     <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1">
-        <v>44588</v>
+        <v>44536</v>
       </c>
       <c r="E39" s="1">
-        <v>44589</v>
+        <v>44536</v>
       </c>
       <c r="F39" s="45">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>854.6</v>
+      </c>
+      <c r="J39" s="3">
+        <v>854.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44516</v>
+      </c>
+      <c r="F40" s="45">
         <v>2</v>
       </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="1">
-        <v>44581</v>
-      </c>
-      <c r="E40" s="1">
-        <v>44587</v>
-      </c>
-      <c r="F40" s="45">
-        <v>5</v>
-      </c>
       <c r="G40" s="12">
         <v>0</v>
       </c>
@@ -9706,25 +9885,25 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>19988.28</v>
+        <v>5104.92</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
+        <v>5104.92</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1">
-        <v>44571</v>
+        <v>44517</v>
       </c>
       <c r="E41" s="1">
-        <v>44571</v>
+        <v>44517</v>
       </c>
       <c r="F41" s="45">
         <v>1</v>
@@ -9735,27 +9914,31 @@
       <c r="H41" s="11">
         <v>0</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1">
-        <v>44536</v>
+        <v>44529</v>
       </c>
       <c r="E42" s="1">
-        <v>44537</v>
+        <v>44529</v>
       </c>
       <c r="F42" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="12">
         <v>0</v>
@@ -9764,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>13343.28</v>
+        <v>6226</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -9773,19 +9956,19 @@
     <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1">
-        <v>44589</v>
+        <v>44530</v>
       </c>
       <c r="E43" s="1">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="F43" s="45">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G43" s="12">
         <v>0</v>
@@ -9794,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>4667</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -9803,116 +9986,110 @@
     <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="E44" s="1">
-        <v>44540</v>
+        <v>44545</v>
       </c>
       <c r="F44" s="45">
+        <v>10</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44487</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44489</v>
+      </c>
+      <c r="F45" s="45">
+        <v>3</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>647</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44588</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44589</v>
+      </c>
+      <c r="F46" s="45">
+        <v>2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44581</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44587</v>
+      </c>
+      <c r="F47" s="45">
         <v>5</v>
       </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2989</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44580</v>
-      </c>
-      <c r="E45" s="1">
-        <v>44587</v>
-      </c>
-      <c r="F45" s="45">
-        <v>6</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>31998</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="1">
-        <v>44543</v>
-      </c>
-      <c r="E46" s="1">
-        <v>44580</v>
-      </c>
-      <c r="F46" s="45">
-        <v>28</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="1">
-        <v>44713</v>
-      </c>
-      <c r="E47" s="1">
-        <v>44756</v>
-      </c>
-      <c r="F47" s="45">
-        <v>32</v>
-      </c>
       <c r="G47" s="12">
         <v>0</v>
       </c>
@@ -9920,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>19988.28</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -9929,16 +10106,16 @@
     <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1">
-        <v>44774</v>
+        <v>44571</v>
       </c>
       <c r="E48" s="1">
-        <v>44774</v>
+        <v>44571</v>
       </c>
       <c r="F48" s="45">
         <v>1</v>
@@ -9957,21 +10134,23 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1">
-        <v>44774</v>
+        <v>44536</v>
       </c>
       <c r="E49" s="1">
-        <v>44774</v>
+        <v>44537</v>
       </c>
       <c r="F49" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="12">
         <v>0</v>
@@ -9980,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>13343.28</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -9989,19 +10168,19 @@
     <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1">
-        <v>44775</v>
+        <v>44589</v>
       </c>
       <c r="E50" s="1">
-        <v>44775</v>
+        <v>44617</v>
       </c>
       <c r="F50" s="45">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G50" s="12">
         <v>0</v>
@@ -10019,19 +10198,19 @@
     <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="E51" s="1">
-        <v>44531</v>
+        <v>44540</v>
       </c>
       <c r="F51" s="45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="12">
         <v>0</v>
@@ -10040,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>2805</v>
+        <v>2989</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -10048,52 +10227,54 @@
     </row>
     <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44580</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44587</v>
+      </c>
+      <c r="F52" s="45">
+        <v>6</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>31998</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1">
-        <v>44593</v>
-      </c>
-      <c r="E52" s="1">
-        <v>44595</v>
-      </c>
-      <c r="F52" s="45">
-        <v>3</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4641</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
       <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
       <c r="D53" s="1">
-        <v>44596</v>
+        <v>44543</v>
       </c>
       <c r="E53" s="1">
-        <v>44596</v>
+        <v>44580</v>
       </c>
       <c r="F53" s="45">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G53" s="12">
         <v>0</v>
@@ -10102,62 +10283,60 @@
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>9013.82</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>9013.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="E54" s="1">
-        <v>44593</v>
+        <v>44756</v>
       </c>
       <c r="F54" s="45">
+        <v>32</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44774</v>
+      </c>
+      <c r="F55" s="45">
         <v>1</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>28800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8540</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="1">
-        <v>44635</v>
-      </c>
-      <c r="E55" s="1">
-        <v>44643</v>
-      </c>
-      <c r="F55" s="45">
-        <v>7</v>
       </c>
       <c r="G55" s="12">
         <v>0</v>
@@ -10175,19 +10354,19 @@
     <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D56" s="1">
-        <v>44643</v>
+        <v>44774</v>
       </c>
       <c r="E56" s="1">
-        <v>44649</v>
+        <v>44774</v>
       </c>
       <c r="F56" s="45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" s="12">
         <v>0</v>
@@ -10203,20 +10382,18 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>108</v>
-      </c>
+      <c r="A57"/>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D57" s="1">
-        <v>44531</v>
+        <v>44775</v>
       </c>
       <c r="E57" s="1">
-        <v>44531</v>
+        <v>44775</v>
       </c>
       <c r="F57" s="45">
         <v>1</v>
@@ -10235,87 +10412,242 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F58" s="45">
+        <v>1</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
       <c r="I58" s="3">
-        <v>264504.37</v>
+        <v>2805</v>
       </c>
       <c r="J58" s="3">
-        <v>39582.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="15"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44593</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44595</v>
+      </c>
+      <c r="F59" s="45">
+        <v>3</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4641</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="15"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="A60"/>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44596</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44596</v>
+      </c>
+      <c r="F60" s="45">
+        <v>1</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9013.82</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9013.82</v>
+      </c>
     </row>
     <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44593</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44593</v>
+      </c>
+      <c r="F61" s="45">
+        <v>1</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8540</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="15"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44635</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44643</v>
+      </c>
+      <c r="F62" s="45">
+        <v>7</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="15"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44643</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44649</v>
+      </c>
+      <c r="F63" s="45">
+        <v>5</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="15"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="15"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F64" s="45">
+        <v>1</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="3">
+        <v>337421.49000000005</v>
+      </c>
+      <c r="J65" s="3">
+        <v>124235.32999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
       <c r="F66" s="15"/>
@@ -10324,7 +10656,7 @@
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="15"/>
       <c r="E67" s="16"/>
       <c r="F67" s="15"/>
@@ -10333,7 +10665,7 @@
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D68" s="15"/>
       <c r="E68" s="16"/>
       <c r="F68" s="15"/>
@@ -10342,7 +10674,7 @@
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D69" s="15"/>
       <c r="E69" s="16"/>
       <c r="F69" s="15"/>
@@ -10351,7 +10683,7 @@
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
     </row>
-    <row r="70" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D70" s="15"/>
       <c r="E70" s="16"/>
       <c r="F70" s="15"/>
@@ -10360,7 +10692,7 @@
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
     </row>
-    <row r="71" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D71" s="15"/>
       <c r="E71" s="16"/>
       <c r="F71" s="15"/>
@@ -10369,7 +10701,7 @@
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
     </row>
-    <row r="72" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D72" s="15"/>
       <c r="E72" s="16"/>
       <c r="F72" s="15"/>
@@ -10378,7 +10710,7 @@
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
     </row>
-    <row r="73" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
@@ -10387,7 +10719,7 @@
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D74" s="15"/>
       <c r="E74" s="16"/>
       <c r="F74" s="15"/>
@@ -10396,7 +10728,7 @@
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
     </row>
-    <row r="75" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D75" s="15"/>
       <c r="E75" s="16"/>
       <c r="F75" s="15"/>
@@ -10405,7 +10737,7 @@
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
     </row>
-    <row r="76" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D76" s="15"/>
       <c r="E76" s="16"/>
       <c r="F76" s="15"/>
@@ -10414,7 +10746,7 @@
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D77" s="15"/>
       <c r="E77" s="16"/>
       <c r="F77" s="15"/>
@@ -10423,7 +10755,7 @@
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D78" s="15"/>
       <c r="E78" s="16"/>
       <c r="F78" s="15"/>
@@ -10432,7 +10764,7 @@
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
     </row>
-    <row r="79" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" s="15"/>
       <c r="E79" s="16"/>
       <c r="F79" s="15"/>
@@ -10441,7 +10773,7 @@
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
     </row>
-    <row r="80" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D80" s="15"/>
       <c r="E80" s="16"/>
       <c r="F80" s="15"/>
@@ -10502,11 +10834,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AJ5">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="71" priority="19">
       <formula>K$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H51">
+  <conditionalFormatting sqref="H6:H101">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -10520,69 +10852,69 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AJ51">
-    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="AK5:AQ5">
+    <cfRule type="expression" dxfId="70" priority="12">
+      <formula>AK$5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR5:AX5">
+    <cfRule type="expression" dxfId="69" priority="6">
+      <formula>AR$5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:AJ101">
+    <cfRule type="expression" dxfId="68" priority="13" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="66" priority="15">
       <formula>AND(K$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="17" stopIfTrue="1">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,K$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="64" priority="18">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,K$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AQ5">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>AK$5&lt;&gt;""</formula>
+  <conditionalFormatting sqref="AR6:AX101">
+    <cfRule type="expression" dxfId="63" priority="1" stopIfTrue="1">
+      <formula>$A6="Grand Total"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
+      <formula>AND(WEEKDAY(AR$5,2)&gt;5,$B6&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="3">
+      <formula>AND(AR$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AR$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
+      <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AR$5&lt;=$E6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="5">
+      <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AR$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK6:AQ51">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="AK6:AQ101">
+    <cfRule type="expression" dxfId="58" priority="7" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="8" stopIfTrue="1">
       <formula>AND(WEEKDAY(AK$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>AND(AK$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AK$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="10" stopIfTrue="1">
       <formula>AND(AK$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AK$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>AND(AK$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AK$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AX5">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AR$5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR6:AX51">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>$A6="Grand Total"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>AND(WEEKDAY(AR$5,2)&gt;5,$B6&lt;&gt;"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(AR$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=AR$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,AR$5&lt;=$E6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(AR$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,AR$5&lt;=$E6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.14000000000000001" right="0.12" top="0.3" bottom="0.12" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="54" fitToWidth="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10625,7 +10957,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:H51</xm:sqref>
+          <xm:sqref>H6:H101</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10698,12 +11030,12 @@
         <v>17</v>
       </c>
       <c r="F2" s="16">
-        <f>COUNTIF(Dashboard!H6:H51,"="&amp;0)</f>
-        <v>37</v>
+        <f>COUNTIF(Dashboard!H6:H101,"="&amp;0)</f>
+        <v>43</v>
       </c>
       <c r="G2" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F2)</f>
-        <v>=NB.SI(Dashboard!H6:H51;"="&amp;0)</v>
+        <v>=NB.SI(Dashboard!H6:H101;"="&amp;0)</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
@@ -10718,7 +11050,7 @@
         <v>20</v>
       </c>
       <c r="P2">
-        <v>205</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10726,27 +11058,27 @@
         <v>30</v>
       </c>
       <c r="B3" s="25">
-        <v>39582.17</v>
+        <v>124235.32999999999</v>
       </c>
       <c r="C3" s="25">
-        <v>264504.37</v>
+        <v>337421.49</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIFS(Dashboard!H6:H51,"&lt;&gt;"&amp;0,Dashboard!H6:H51,"&lt;"&amp;1)</f>
+        <f>COUNTIFS(Dashboard!H6:H101,"&lt;&gt;"&amp;0,Dashboard!H6:H101,"&lt;"&amp;1)</f>
         <v>0</v>
       </c>
       <c r="G3" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F3)</f>
-        <v>=NB.SI.ENS(Dashboard!H6:H51;"&lt;&gt;"&amp;0;Dashboard!H6:H51;"&lt;"&amp;1)</v>
+        <v>=NB.SI.ENS(Dashboard!H6:H101;"&lt;&gt;"&amp;0;Dashboard!H6:H101;"&lt;"&amp;1)</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" t="s">
@@ -10754,7 +11086,7 @@
       </c>
       <c r="M3" s="34">
         <f>J3/$J$4</f>
-        <v>7.6666666666666661E-2</v>
+        <v>9.7719869706840393E-2</v>
       </c>
       <c r="N3" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(M3)</f>
@@ -10767,28 +11099,28 @@
       </c>
       <c r="B4" s="2">
         <f>GETPIVOTDATA("Actual ",$B$2)/GETPIVOTDATA("Budget ",$B$2)</f>
-        <v>0.14964656349534036</v>
+        <v>0.36819033073441765</v>
       </c>
       <c r="C4" s="2">
         <f>1-B4</f>
-        <v>0.85035343650465967</v>
+        <v>0.63180966926558235</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="16">
-        <f>COUNTIF(Dashboard!H6:H51,"="&amp;1)</f>
-        <v>9</v>
+        <f>COUNTIF(Dashboard!H6:H101,"="&amp;1)</f>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F4)</f>
-        <v>=NB.SI(Dashboard!H6:H51;"="&amp;1)</v>
+        <v>=NB.SI(Dashboard!H6:H101;"="&amp;1)</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="6">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" t="s">
@@ -10796,7 +11128,7 @@
       </c>
       <c r="M4" s="34">
         <f>1-M3</f>
-        <v>0.92333333333333334</v>
+        <v>0.90228013029315957</v>
       </c>
       <c r="N4" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(M4)</f>
@@ -10814,7 +11146,7 @@
       </c>
       <c r="F5" s="31">
         <f>F3+F2</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F5)</f>
@@ -10830,7 +11162,7 @@
       </c>
       <c r="F6" s="7">
         <f>COUNTA(Dashboard!B6:B50)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F6)</f>
@@ -10855,10 +11187,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10871,8 +11203,7 @@
     <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.7109375" style="44" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -10911,13 +11242,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1">
         <v>44309</v>
@@ -10937,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="41">
-        <v>3215</v>
+        <v>3215.2</v>
       </c>
       <c r="J2" s="41">
         <v>3215.2</v>
@@ -10945,13 +11276,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <v>44337</v>
@@ -10982,79 +11313,75 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1">
-        <v>44438</v>
+      <c r="D4" s="40">
+        <v>44215</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="40">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44439</v>
+        <v>44215</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
       <c r="I4" s="41">
-        <v>5088</v>
+        <v>2650</v>
       </c>
       <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" s="2"/>
+        <v>2650</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>44439</v>
+        <v>44215</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44439</v>
+        <v>44215</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
       <c r="I5" s="41">
-        <v>4664</v>
+        <v>5738</v>
       </c>
       <c r="J5" s="41">
-        <v>0</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" s="2"/>
+        <v>5738</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -11072,7 +11399,7 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
@@ -11080,147 +11407,143 @@
         <v>1590</v>
       </c>
       <c r="J6" s="41">
-        <v>0</v>
-      </c>
-      <c r="K6"/>
+        <v>1590</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>44442</v>
+        <v>44398</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="40">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44398</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="43">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="41">
+        <v>4452</v>
+      </c>
+      <c r="J7" s="41">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44442</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44442</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
-      <c r="I7" s="41">
-        <v>1431</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0</v>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44462</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="I8" s="41">
+        <v>530</v>
+      </c>
+      <c r="J8" s="41">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44288</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44469</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2">
+        <v>44288</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
-      <c r="I8" s="41">
-        <v>7177.26</v>
-      </c>
-      <c r="J8" s="41">
-        <v>0</v>
-      </c>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44475</v>
-      </c>
-      <c r="E9">
+      <c r="I9" s="41">
+        <v>14310</v>
+      </c>
+      <c r="J9" s="41">
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44398</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44475</v>
-      </c>
-      <c r="G9" s="3">
+        <v>44398</v>
+      </c>
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="41">
-        <v>19398</v>
-      </c>
-      <c r="J9" s="41">
-        <v>7759.2</v>
-      </c>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44487</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44489</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
-      </c>
       <c r="I10" s="41">
-        <v>647</v>
+        <v>45240</v>
       </c>
       <c r="J10" s="41">
-        <v>0</v>
+        <v>16611.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11228,70 +11551,69 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="40">
-        <v>44502</v>
+      <c r="D11" s="1">
+        <v>44438</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44502</v>
+        <v>44439</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
       <c r="I11" s="41">
-        <v>1500</v>
+        <v>5936</v>
       </c>
       <c r="J11" s="41">
-        <v>0</v>
-      </c>
-      <c r="K11"/>
+        <v>5936</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
-        <v>44506</v>
+        <v>44439</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44526</v>
+        <v>44439</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="41">
-        <v>3884</v>
+        <v>12084</v>
       </c>
       <c r="J12" s="41">
-        <v>0</v>
-      </c>
-      <c r="K12"/>
+        <v>12084</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11299,33 +11621,33 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="40">
-        <v>44508</v>
+      <c r="D13" s="1">
+        <v>44442</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44508</v>
+        <v>44442</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="41">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="J13" s="41">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="K13"/>
     </row>
@@ -11334,125 +11656,125 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1">
-        <v>44509</v>
+        <v>44442</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44510</v>
+        <v>44442</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="41">
-        <v>2438</v>
+        <v>1431</v>
       </c>
       <c r="J14" s="41">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1">
-        <v>44511</v>
+        <v>44462</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44511</v>
+        <v>44469</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="41">
-        <v>2544</v>
+        <v>7177.26</v>
       </c>
       <c r="J15" s="41">
-        <v>0</v>
+        <v>7177.26</v>
       </c>
       <c r="K15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
-        <v>44515</v>
+        <v>44475</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44516</v>
+        <v>44475</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="41">
-        <v>14966</v>
+        <v>19398</v>
       </c>
       <c r="J16" s="41">
-        <v>5104.92</v>
+        <v>17458</v>
       </c>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
-        <v>44517</v>
+        <v>44487</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -11462,67 +11784,66 @@
         <v>0</v>
       </c>
       <c r="I17" s="41">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="J17" s="41">
         <v>0</v>
       </c>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
-        <v>44523</v>
+        <v>44502</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44523</v>
+        <v>44502</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="41">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J18" s="41">
         <v>0</v>
       </c>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
-        <v>44526</v>
+        <v>44506</v>
       </c>
       <c r="E19">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44644</v>
+        <v>44526</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -11532,32 +11853,33 @@
         <v>0</v>
       </c>
       <c r="I19" s="41">
-        <v>10148</v>
+        <v>3884</v>
       </c>
       <c r="J19" s="41">
         <v>0</v>
       </c>
       <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
-        <v>44529</v>
+        <v>44508</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44529</v>
+        <v>44508</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -11567,32 +11889,32 @@
         <v>0</v>
       </c>
       <c r="I20" s="41">
-        <v>6226</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="41">
         <v>0</v>
       </c>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44532</v>
+        <v>44510</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -11602,32 +11924,32 @@
         <v>0</v>
       </c>
       <c r="I21" s="41">
-        <v>4667</v>
+        <v>2438</v>
       </c>
       <c r="J21" s="41">
         <v>0</v>
       </c>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
-        <v>44531</v>
+        <v>44511</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44531</v>
+        <v>44511</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -11636,33 +11958,33 @@
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="42">
-        <v>0</v>
+      <c r="I22" s="41">
+        <v>2544</v>
       </c>
       <c r="J22" s="41">
         <v>0</v>
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1">
-        <v>44531</v>
+        <v>44515</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44531</v>
+        <v>44516</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -11672,32 +11994,32 @@
         <v>0</v>
       </c>
       <c r="I23" s="41">
-        <v>2805</v>
+        <v>5104.92</v>
       </c>
       <c r="J23" s="41">
-        <v>0</v>
+        <v>5104.92</v>
       </c>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1">
-        <v>44532</v>
+        <v>44517</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44545</v>
+        <v>44517</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -11714,25 +12036,25 @@
       </c>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
-        <v>44536</v>
+        <v>44523</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44536</v>
+        <v>44523</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -11742,31 +12064,32 @@
         <v>0</v>
       </c>
       <c r="I25" s="41">
-        <v>854.6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>44536</v>
+        <v>44526</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44537</v>
+        <v>44644</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -11776,31 +12099,32 @@
         <v>0</v>
       </c>
       <c r="I26" s="41">
-        <v>13343.28</v>
+        <v>10148</v>
       </c>
       <c r="J26" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1">
-        <v>44536</v>
+        <v>44529</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44540</v>
+        <v>44529</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -11810,950 +12134,1169 @@
         <v>0</v>
       </c>
       <c r="I27" s="41">
-        <v>2989</v>
+        <v>6226</v>
       </c>
       <c r="J27" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1">
-        <v>44543</v>
+        <v>44530</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44580</v>
+        <v>44532</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="42">
-        <v>0</v>
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="41">
+        <v>4667</v>
       </c>
       <c r="J28" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="40">
-        <v>44571</v>
+        <v>56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44531</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44531</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="42">
+        <v>0</v>
+      </c>
+      <c r="J29" s="41">
+        <v>0</v>
+      </c>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44531</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="41">
+        <v>2805</v>
+      </c>
+      <c r="J30" s="41">
+        <v>0</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44532</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44545</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="41">
+        <v>0</v>
+      </c>
+      <c r="J31" s="41">
+        <v>0</v>
+      </c>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44536</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44536</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="41">
+        <v>854.6</v>
+      </c>
+      <c r="J32" s="41">
+        <v>854.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44536</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44537</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="41">
+        <v>13343.28</v>
+      </c>
+      <c r="J33" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44536</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44540</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="41">
+        <v>2989</v>
+      </c>
+      <c r="J34" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44543</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1">
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <v>44580</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="42">
+        <v>0</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="40">
+        <v>44571</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="40">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44571</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="43">
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="I36" s="41">
+        <v>0</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1">
         <v>44580</v>
       </c>
-      <c r="E30">
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F37" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44587</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I37" s="41">
         <v>31998</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J37" s="41">
         <v>4800</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="40">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="40">
         <v>44581</v>
       </c>
-      <c r="E31">
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F38" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44587</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="43">
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="43">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I38" s="41">
         <v>19988.28</v>
       </c>
-      <c r="J31" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="40">
+      <c r="J38" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="40">
         <v>44583</v>
       </c>
-      <c r="E32">
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F39" s="40">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44585</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I39" s="41">
         <v>1535.94</v>
       </c>
-      <c r="J32" s="41">
-        <v>0</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="J39" s="41">
+        <v>0</v>
+      </c>
+      <c r="K39" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1">
         <v>44588</v>
       </c>
-      <c r="E33">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F40" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44589</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I33" s="41">
-        <v>0</v>
-      </c>
-      <c r="J33" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="I40" s="41">
+        <v>0</v>
+      </c>
+      <c r="J40" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1">
         <v>44589</v>
       </c>
-      <c r="E34">
+      <c r="E41">
         <v>21</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F41" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44617</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I34" s="42">
-        <v>0</v>
-      </c>
-      <c r="J34" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I41" s="42">
+        <v>0</v>
+      </c>
+      <c r="J41" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1">
         <v>44593</v>
       </c>
-      <c r="E35">
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F42" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44595</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I42" s="41">
         <v>4641</v>
       </c>
-      <c r="J35" s="41">
-        <v>0</v>
-      </c>
-      <c r="K35" s="44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="J42" s="41">
+        <v>0</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="D43" s="1">
         <v>44593</v>
       </c>
-      <c r="E36">
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F43" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44593</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I43" s="41">
         <v>28800</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J43" s="41">
         <v>8540</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="1">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="1">
         <v>44596</v>
       </c>
-      <c r="E37">
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F44" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44596</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I44" s="41">
         <v>9013.82</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J44" s="41">
         <v>9013.82</v>
       </c>
-      <c r="K37" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="K44" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="D45" s="1">
         <v>44606</v>
       </c>
-      <c r="E38">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F45" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44608</v>
       </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I38" s="41">
-        <v>0</v>
-      </c>
-      <c r="J38" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="I45" s="41">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="D46" s="1">
         <v>44609</v>
       </c>
-      <c r="E39">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F46" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44610</v>
       </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I39" s="41">
-        <v>0</v>
-      </c>
-      <c r="J39" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="I46" s="41">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="D47" s="1">
         <v>44613</v>
       </c>
-      <c r="E40">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F47" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44614</v>
       </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I40" s="41">
-        <v>0</v>
-      </c>
-      <c r="J40" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="I47" s="41">
+        <v>0</v>
+      </c>
+      <c r="J47" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="D48" s="1">
         <v>44615</v>
       </c>
-      <c r="E41">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F48" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44623</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I48" s="41">
         <v>32765</v>
       </c>
-      <c r="J41" s="41">
-        <v>0</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="40">
+      <c r="J48" s="41">
+        <v>0</v>
+      </c>
+      <c r="K48" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="40">
         <v>44623</v>
       </c>
-      <c r="E42">
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F49" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44623</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I49" s="41">
         <v>5745.19</v>
       </c>
-      <c r="J42" s="41">
+      <c r="J49" s="41">
         <v>1149.03</v>
       </c>
-      <c r="K42" s="44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="K49" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="1">
         <v>44623</v>
       </c>
-      <c r="E43">
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F50" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44627</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I50" s="41">
         <v>6212</v>
       </c>
-      <c r="J43" s="41">
-        <v>0</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="J50" s="41">
+        <v>0</v>
+      </c>
+      <c r="K50" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1">
         <v>44627</v>
       </c>
-      <c r="E44">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F51" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44627</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I44" s="41">
-        <v>0</v>
-      </c>
-      <c r="J44" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="I51" s="41">
+        <v>0</v>
+      </c>
+      <c r="J51" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="1">
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="1">
         <v>44628</v>
       </c>
-      <c r="E45">
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F52" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44628</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I45" s="41">
-        <v>0</v>
-      </c>
-      <c r="J45" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="I52" s="41">
+        <v>0</v>
+      </c>
+      <c r="J52" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1">
         <v>44629</v>
       </c>
-      <c r="E46">
+      <c r="E53">
         <v>5</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F53" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44635</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I53" s="41">
         <v>12205</v>
       </c>
-      <c r="J46" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="J53" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="1">
         <v>44635</v>
       </c>
-      <c r="E47">
+      <c r="E54">
         <v>7</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F54" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44643</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I47" s="41">
-        <v>0</v>
-      </c>
-      <c r="J47" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="I54" s="41">
+        <v>0</v>
+      </c>
+      <c r="J54" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1">
         <v>44636</v>
       </c>
-      <c r="E48">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F55" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44636</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I48" s="41">
-        <v>0</v>
-      </c>
-      <c r="J48" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="I55" s="41">
+        <v>0</v>
+      </c>
+      <c r="J55" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="1">
         <v>44643</v>
       </c>
-      <c r="E49">
+      <c r="E56">
         <v>5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F56" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44649</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I49" s="41">
-        <v>0</v>
-      </c>
-      <c r="J49" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="I56" s="41">
+        <v>0</v>
+      </c>
+      <c r="J56" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="1">
         <v>44713</v>
       </c>
-      <c r="E50">
+      <c r="E57">
         <v>32</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F57" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44756</v>
       </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I50" s="41">
-        <v>0</v>
-      </c>
-      <c r="J50" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="I57" s="41">
+        <v>0</v>
+      </c>
+      <c r="J57" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1">
         <v>44774</v>
       </c>
-      <c r="E51">
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F58" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44774</v>
       </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I51" s="42">
-        <v>0</v>
-      </c>
-      <c r="J51" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="I58" s="42">
+        <v>0</v>
+      </c>
+      <c r="J58" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="1">
         <v>44774</v>
       </c>
-      <c r="E52">
+      <c r="E59">
         <v>1</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F59" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44774</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I52" s="42">
-        <v>0</v>
-      </c>
-      <c r="J52" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="I59" s="42">
+        <v>0</v>
+      </c>
+      <c r="J59" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
         <v>97</v>
       </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="1">
         <v>44775</v>
       </c>
-      <c r="E53">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F60" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
         <v>44775</v>
       </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
-      <c r="I53" s="42">
-        <v>0</v>
-      </c>
-      <c r="J53" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="42">
+        <v>0</v>
+      </c>
+      <c r="J60" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I61" s="41"/>
       <c r="J61" s="41"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I62" s="41"/>
       <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
     </row>
@@ -13020,6 +13563,34 @@
     <row r="130" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I130" s="41"/>
       <c r="J130" s="41"/>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/JVE_Planning.xlsx
+++ b/planning/JVE_Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\maison\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDE9B5-5C70-4BB6-8CF3-261103F39AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853C7D1-D7F8-4112-803E-30FAB2191626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -8402,9 +8402,9 @@
   </sheetPr>
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL9" sqref="AL9"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11189,8 +11189,8 @@
   </sheetPr>
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12346,7 +12346,7 @@
         <v>13343.28</v>
       </c>
       <c r="J33" s="41">
-        <v>0</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">

--- a/planning/JVE_Planning.xlsx
+++ b/planning/JVE_Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\maison\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\maison\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853C7D1-D7F8-4112-803E-30FAB2191626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A66ABC-AE85-4DDB-B8FD-DAAC5959A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -2880,7 +2882,7 @@
             <c:numRef>
               <c:f>Workings!$B$3</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
+                <c:formatCode>#,##0.0,,"M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>124235.32999999999</c:v>
@@ -3064,7 +3066,7 @@
             <c:numRef>
               <c:f>Workings!$C$3</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0\ \ "M"</c:formatCode>
+                <c:formatCode>#,##0.0,,"M"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>337421.49</c:v>
@@ -3117,7 +3119,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#\ ##0.0\ \ &quot;M&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0,,&quot;M&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7772,6 +7774,90 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="6"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="7"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
@@ -7908,90 +7994,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="17">
-        <item x="6"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="7"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8404,25 +8406,25 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="50" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
@@ -8479,7 +8481,7 @@
       <c r="AW1" s="26"/>
       <c r="AX1" s="26"/>
     </row>
-    <row r="2" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -8507,7 +8509,7 @@
       <c r="Y2" s="46"/>
       <c r="Z2" s="46"/>
     </row>
-    <row r="3" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -8535,7 +8537,7 @@
       <c r="Y3" s="46"/>
       <c r="Z3" s="46"/>
     </row>
-    <row r="4" spans="1:53" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -8563,7 +8565,7 @@
       <c r="Y4" s="46"/>
       <c r="Z4" s="46"/>
     </row>
-    <row r="5" spans="1:53" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -8758,7 +8760,7 @@
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
     </row>
-    <row r="6" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -8820,7 +8822,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>39</v>
@@ -8850,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>40</v>
@@ -8880,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>118</v>
@@ -8910,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>121</v>
@@ -8940,7 +8942,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>127</v>
@@ -8970,7 +8972,7 @@
         <v>5738</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>128</v>
@@ -9000,7 +9002,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="14" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>129</v>
@@ -9030,7 +9032,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>126</v>
@@ -9070,7 +9072,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>122</v>
@@ -9110,7 +9112,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>123</v>
@@ -9150,7 +9152,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>125</v>
@@ -9190,7 +9192,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>124</v>
@@ -9230,7 +9232,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>130</v>
@@ -9269,7 +9271,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -9306,7 +9308,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22"/>
       <c r="B22" t="s">
         <v>119</v>
@@ -9341,7 +9343,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -9373,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>47</v>
@@ -9403,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>48</v>
@@ -9433,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>49</v>
@@ -9463,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>53</v>
@@ -9525,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>54</v>
@@ -9555,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>57</v>
@@ -9585,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>55</v>
@@ -9615,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32"/>
       <c r="B32" t="s">
         <v>105</v>
@@ -9645,7 +9647,7 @@
         <v>1149.03</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -9677,7 +9679,7 @@
         <v>7177.26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>108</v>
@@ -9707,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>3215.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>65</v>
@@ -9769,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37"/>
       <c r="B37" t="s">
         <v>63</v>
@@ -9799,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38"/>
       <c r="B38" t="s">
         <v>70</v>
@@ -9829,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39"/>
       <c r="B39" t="s">
         <v>66</v>
@@ -9859,7 +9861,7 @@
         <v>854.6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -9891,7 +9893,7 @@
         <v>5104.92</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41"/>
       <c r="B41" t="s">
         <v>71</v>
@@ -9921,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -9953,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43"/>
       <c r="B43" t="s">
         <v>74</v>
@@ -9983,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44"/>
       <c r="B44" t="s">
         <v>75</v>
@@ -10013,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45"/>
       <c r="B45" t="s">
         <v>79</v>
@@ -10043,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46"/>
       <c r="B46" t="s">
         <v>77</v>
@@ -10073,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47"/>
       <c r="B47" t="s">
         <v>76</v>
@@ -10103,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48"/>
       <c r="B48" t="s">
         <v>120</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50"/>
       <c r="B50" t="s">
         <v>89</v>
@@ -10195,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51"/>
       <c r="B51" t="s">
         <v>103</v>
@@ -10225,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55"/>
       <c r="B55" t="s">
         <v>85</v>
@@ -10351,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56"/>
       <c r="B56" t="s">
         <v>96</v>
@@ -10381,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57"/>
       <c r="B57" t="s">
         <v>97</v>
@@ -10411,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58"/>
       <c r="B58" t="s">
         <v>98</v>
@@ -10441,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -10473,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60"/>
       <c r="B60" t="s">
         <v>81</v>
@@ -10503,7 +10505,7 @@
         <v>9013.82</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -10535,7 +10537,7 @@
         <v>8540</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -10567,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63"/>
       <c r="B63" t="s">
         <v>102</v>
@@ -10597,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>111</v>
       </c>
@@ -10647,7 +10649,7 @@
         <v>124235.32999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
       <c r="F66" s="15"/>
@@ -10656,7 +10658,7 @@
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="15"/>
       <c r="E67" s="16"/>
       <c r="F67" s="15"/>
@@ -10665,7 +10667,7 @@
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D68" s="15"/>
       <c r="E68" s="16"/>
       <c r="F68" s="15"/>
@@ -10674,7 +10676,7 @@
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D69" s="15"/>
       <c r="E69" s="16"/>
       <c r="F69" s="15"/>
@@ -10683,7 +10685,7 @@
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D70" s="15"/>
       <c r="E70" s="16"/>
       <c r="F70" s="15"/>
@@ -10692,7 +10694,7 @@
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D71" s="15"/>
       <c r="E71" s="16"/>
       <c r="F71" s="15"/>
@@ -10701,7 +10703,7 @@
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D72" s="15"/>
       <c r="E72" s="16"/>
       <c r="F72" s="15"/>
@@ -10710,7 +10712,7 @@
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
@@ -10719,7 +10721,7 @@
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D74" s="15"/>
       <c r="E74" s="16"/>
       <c r="F74" s="15"/>
@@ -10728,7 +10730,7 @@
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D75" s="15"/>
       <c r="E75" s="16"/>
       <c r="F75" s="15"/>
@@ -10737,7 +10739,7 @@
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D76" s="15"/>
       <c r="E76" s="16"/>
       <c r="F76" s="15"/>
@@ -10746,7 +10748,7 @@
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D77" s="15"/>
       <c r="E77" s="16"/>
       <c r="F77" s="15"/>
@@ -10755,7 +10757,7 @@
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D78" s="15"/>
       <c r="E78" s="16"/>
       <c r="F78" s="15"/>
@@ -10764,7 +10766,7 @@
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D79" s="15"/>
       <c r="E79" s="16"/>
       <c r="F79" s="15"/>
@@ -10773,7 +10775,7 @@
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D80" s="15"/>
       <c r="E80" s="16"/>
       <c r="F80" s="15"/>
@@ -10782,7 +10784,7 @@
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
     </row>
-    <row r="81" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
       <c r="F81" s="15"/>
@@ -10791,7 +10793,7 @@
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
     </row>
-    <row r="82" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D82" s="15"/>
       <c r="E82" s="16"/>
       <c r="F82" s="15"/>
@@ -10800,7 +10802,7 @@
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
     </row>
-    <row r="83" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D83" s="15"/>
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
@@ -10809,7 +10811,7 @@
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
       <c r="F84" s="15"/>
@@ -10818,7 +10820,7 @@
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D85" s="15"/>
       <c r="E85" s="16"/>
       <c r="F85" s="15"/>
@@ -10979,24 +10981,24 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.265625" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="8.3984375" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
@@ -11019,7 +11021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -11053,7 +11055,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -11093,7 +11095,7 @@
         <v>=J3/$J$4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -11135,7 +11137,7 @@
         <v>=1-M3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C4)</f>
         <v>=1-B4</v>
@@ -11156,7 +11158,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>=NBVAL(Dashboard!B6:B50)</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -11189,26 +11191,24 @@
   </sheetPr>
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.7109375" style="44" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.73046875" style="44" customWidth="1"/>
+    <col min="14" max="14" width="26.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>3215.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>5738</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>14310</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>16611.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -11861,7 +11861,7 @@
       <c r="K19"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -11872,21 +11872,21 @@
         <v>36</v>
       </c>
       <c r="D20" s="1">
-        <v>44508</v>
+        <v>44531</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44508</v>
+        <v>44531</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="41">
         <v>1500</v>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -11942,21 +11942,21 @@
         <v>36</v>
       </c>
       <c r="D22" s="1">
-        <v>44511</v>
+        <v>44531</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>44511</v>
+        <v>44531</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="41">
         <v>2544</v>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>854.6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -12481,10 +12481,10 @@
         <v>31998</v>
       </c>
       <c r="J37" s="41">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18694.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>8540</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -13284,311 +13284,311 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I61" s="41"/>
       <c r="J61" s="41"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I62" s="41"/>
       <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I65" s="41"/>
       <c r="J65" s="41"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I67" s="41"/>
       <c r="J67" s="41"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I71" s="41"/>
       <c r="J71" s="41"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I72" s="41"/>
       <c r="J72" s="41"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I73" s="41"/>
       <c r="J73" s="41"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I83" s="41"/>
       <c r="J83" s="41"/>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I84" s="41"/>
       <c r="J84" s="41"/>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I90" s="41"/>
       <c r="J90" s="41"/>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I91" s="41"/>
       <c r="J91" s="41"/>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I92" s="41"/>
       <c r="J92" s="41"/>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I94" s="41"/>
       <c r="J94" s="41"/>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I95" s="41"/>
       <c r="J95" s="41"/>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I96" s="41"/>
       <c r="J96" s="41"/>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I97" s="41"/>
       <c r="J97" s="41"/>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I98" s="41"/>
       <c r="J98" s="41"/>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I99" s="41"/>
       <c r="J99" s="41"/>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I100" s="41"/>
       <c r="J100" s="41"/>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I101" s="41"/>
       <c r="J101" s="41"/>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I102" s="41"/>
       <c r="J102" s="41"/>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I103" s="41"/>
       <c r="J103" s="41"/>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I104" s="41"/>
       <c r="J104" s="41"/>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I105" s="41"/>
       <c r="J105" s="41"/>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I106" s="41"/>
       <c r="J106" s="41"/>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I107" s="41"/>
       <c r="J107" s="41"/>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I108" s="41"/>
       <c r="J108" s="41"/>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I109" s="41"/>
       <c r="J109" s="41"/>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I110" s="41"/>
       <c r="J110" s="41"/>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I111" s="41"/>
       <c r="J111" s="41"/>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I112" s="41"/>
       <c r="J112" s="41"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I113" s="41"/>
       <c r="J113" s="41"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I114" s="41"/>
       <c r="J114" s="41"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I115" s="41"/>
       <c r="J115" s="41"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I116" s="41"/>
       <c r="J116" s="41"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I117" s="41"/>
       <c r="J117" s="41"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I118" s="41"/>
       <c r="J118" s="41"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I119" s="41"/>
       <c r="J119" s="41"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I120" s="41"/>
       <c r="J120" s="41"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I121" s="41"/>
       <c r="J121" s="41"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I122" s="41"/>
       <c r="J122" s="41"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I123" s="41"/>
       <c r="J123" s="41"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I124" s="41"/>
       <c r="J124" s="41"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I125" s="41"/>
       <c r="J125" s="41"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I126" s="41"/>
       <c r="J126" s="41"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I127" s="41"/>
       <c r="J127" s="41"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I128" s="41"/>
       <c r="J128" s="41"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I129" s="41"/>
       <c r="J129" s="41"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I130" s="41"/>
       <c r="J130" s="41"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I131" s="41"/>
       <c r="J131" s="41"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I132" s="41"/>
       <c r="J132" s="41"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I133" s="41"/>
       <c r="J133" s="41"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I134" s="41"/>
       <c r="J134" s="41"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I135" s="41"/>
       <c r="J135" s="41"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I136" s="41"/>
       <c r="J136" s="41"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I137" s="41"/>
       <c r="J137" s="41"/>
     </row>
